--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_0_branch_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_0_branch_ward34_resistance.xlsx
@@ -1050,40 +1050,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.563194052506556E-14</v>
+        <v>3.647452789181904E-14</v>
       </c>
       <c r="O2">
-        <v>1.563189667967258E-14</v>
+        <v>3.90798074620344E-14</v>
       </c>
       <c r="P2">
-        <v>-1.042133822868902E-14</v>
+        <v>-1.563198507595081E-14</v>
       </c>
       <c r="Q2">
-        <v>-2.60532342084423E-14</v>
+        <v>-5.210646841688423E-14</v>
       </c>
       <c r="R2">
-        <v>-5.210174758053882E-15</v>
+        <v>-3.647405579497306E-14</v>
       </c>
       <c r="S2">
-        <v>5.211119632898032E-15</v>
+        <v>1.563241332887132E-14</v>
       </c>
       <c r="T2">
-        <v>-3.647452789181843E-14</v>
+        <v>-3.647452789181817E-14</v>
       </c>
       <c r="U2">
-        <v>5.763350571398476E-09</v>
+        <v>5.763384440602926E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089307E-09</v>
+        <v>-5.763413103323537E-09</v>
       </c>
       <c r="W2">
-        <v>3.64745278918183E-14</v>
+        <v>4.168517473350637E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763355781559422E-09</v>
+        <v>-5.76338965076387E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763387050575203E-09</v>
+        <v>5.763413103809438E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057474</v>
+        <v>0.5500000117057466</v>
       </c>
       <c r="AH2">
-        <v>0.550000012103018</v>
+        <v>0.5500000121030191</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593773</v>
       </c>
       <c r="AK2">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493885</v>
       </c>
       <c r="AL2">
-        <v>6.94449666104254E-13</v>
+        <v>6.8903619594E-13</v>
       </c>
       <c r="AM2">
         <v>-179.9999999995569</v>
@@ -1131,7 +1131,7 @@
         <v>179.9999999995499</v>
       </c>
       <c r="AO2">
-        <v>6.887451165512839E-13</v>
+        <v>6.796868449654769E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952996</v>
@@ -1181,40 +1181,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736675361E-14</v>
+        <v>-2.084258736675374E-14</v>
       </c>
       <c r="O3">
-        <v>1.563214546371081E-14</v>
+        <v>-1.302641215349651E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886348086E-14</v>
+        <v>-5.210441661213508E-15</v>
       </c>
       <c r="Q3">
-        <v>1.252730165043641E-28</v>
+        <v>1.042129368337693E-14</v>
       </c>
       <c r="R3">
-        <v>-5.210804201512236E-15</v>
+        <v>1.563178315733342E-14</v>
       </c>
       <c r="S3">
-        <v>-1.563209812746983E-14</v>
+        <v>-5.210804443527041E-15</v>
       </c>
       <c r="T3">
-        <v>1.04212936833765E-14</v>
+        <v>2.084258736675325E-14</v>
       </c>
       <c r="U3">
-        <v>-1.92113422573967E-09</v>
+        <v>-1.921142041709926E-09</v>
       </c>
       <c r="V3">
-        <v>1.921108174325013E-09</v>
+        <v>1.921144648852928E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337675E-14</v>
+        <v>-1.563194052506499E-14</v>
       </c>
       <c r="X3">
-        <v>1.921139436440498E-09</v>
+        <v>1.921136831117076E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921118595564711E-09</v>
+        <v>-1.921144648798938E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1238,31 +1238,31 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439223</v>
+        <v>0.5500000116439206</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648448</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593773</v>
       </c>
       <c r="AK3">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493885</v>
       </c>
       <c r="AL3">
-        <v>6.660169023184687E-13</v>
+        <v>6.657119977675031E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938734</v>
       </c>
       <c r="AO3">
-        <v>6.887451165512839E-13</v>
+        <v>6.796868449654769E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952996</v>
@@ -1312,40 +1312,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.563194052506493E-14</v>
+        <v>-2.605323420844217E-14</v>
       </c>
       <c r="O4">
-        <v>1.563214546482255E-14</v>
+        <v>-2.605118473943222E-15</v>
       </c>
       <c r="P4">
-        <v>1.042149886348086E-14</v>
+        <v>-1.563173534613598E-14</v>
       </c>
       <c r="Q4">
-        <v>-1.252730165043641E-28</v>
+        <v>1.563194052506543E-14</v>
       </c>
       <c r="R4">
-        <v>5.210489477222209E-15</v>
+        <v>5.210489477745387E-15</v>
       </c>
       <c r="S4">
-        <v>-1.563209812661494E-14</v>
+        <v>1.563178293165618E-14</v>
       </c>
       <c r="T4">
-        <v>-1.56319405250653E-14</v>
+        <v>2.605323420844156E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921144647033347E-09</v>
+        <v>-1.921152463003602E-09</v>
       </c>
       <c r="V4">
-        <v>1.921108174325013E-09</v>
+        <v>1.921165491440305E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368337675E-14</v>
+        <v>-2.605323420844168E-14</v>
       </c>
       <c r="X4">
-        <v>1.921139436440499E-09</v>
+        <v>1.921147252410754E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921155070092627E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1369,31 +1369,31 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439204</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648447</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593773</v>
       </c>
       <c r="AK4">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493885</v>
       </c>
       <c r="AL4">
-        <v>6.729871228056328E-13</v>
+        <v>6.698015385616779E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938733</v>
       </c>
       <c r="AO4">
-        <v>6.887451165512839E-13</v>
+        <v>6.796868449654769E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952996</v>
@@ -1443,40 +1443,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.210646841688615E-15</v>
+        <v>1.042129368337687E-14</v>
       </c>
       <c r="O5">
-        <v>1.042129367732985E-14</v>
+        <v>-5.210646840054574E-15</v>
       </c>
       <c r="P5">
-        <v>-5.210646844155951E-15</v>
+        <v>5.210646843042944E-15</v>
       </c>
       <c r="Q5">
-        <v>-1.042129368337644E-14</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="R5">
-        <v>-5.210646840332533E-15</v>
+        <v>5.210646840054571E-15</v>
       </c>
       <c r="S5">
-        <v>-5.21064684526895E-15</v>
+        <v>-2.084258737551082E-14</v>
       </c>
       <c r="T5">
-        <v>2.084258736675343E-14</v>
+        <v>-1.042129368337662E-14</v>
       </c>
       <c r="U5">
-        <v>1.042129367955333E-14</v>
+        <v>7.815970258275302E-15</v>
       </c>
       <c r="V5">
-        <v>5.56499296051812E-25</v>
+        <v>-1.042129368886843E-14</v>
       </c>
       <c r="W5">
-        <v>-2.605323420844199E-14</v>
+        <v>5.210646841688252E-15</v>
       </c>
       <c r="X5">
-        <v>1.042129367788572E-14</v>
+        <v>-7.815970258275301E-15</v>
       </c>
       <c r="Y5">
-        <v>-1.042129368775541E-14</v>
+        <v>1.042129369053798E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1500,37 +1500,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG5">
-        <v>0.5500000116439223</v>
+        <v>0.5500000116439206</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648448</v>
       </c>
       <c r="AI5">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ5">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439204</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648447</v>
       </c>
       <c r="AL5">
-        <v>6.660169023184687E-13</v>
+        <v>6.657119977675031E-13</v>
       </c>
       <c r="AM5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938734</v>
       </c>
       <c r="AO5">
-        <v>6.729871228056328E-13</v>
+        <v>6.698015385616779E-13</v>
       </c>
       <c r="AP5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938733</v>
       </c>
     </row>
   </sheetData>
@@ -1718,40 +1718,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.210646841703929E-15</v>
+        <v>2.605323420851922E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307564051549513E-10</v>
+        <v>-7.30753432045509E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307828491597E-09</v>
+        <v>-2.039308725986883E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052511143E-14</v>
+        <v>-4.689582157533431E-14</v>
       </c>
       <c r="R2">
-        <v>7.307617996355367E-10</v>
+        <v>7.307760964580404E-10</v>
       </c>
       <c r="S2">
-        <v>2.039299456555506E-09</v>
+        <v>2.039310408255024E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511128E-14</v>
+        <v>-3.647452789192617E-14</v>
       </c>
       <c r="U2">
-        <v>5.822474143464276E-09</v>
+        <v>5.82252511227054E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556048237506592E-09</v>
+        <v>-3.556086772344389E-09</v>
       </c>
       <c r="W2">
-        <v>1.04212936834074E-14</v>
+        <v>3.647452789192597E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822469343566672E-09</v>
+        <v>-5.822522342606261E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556051601792752E-09</v>
+        <v>3.556090958784872E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1772,34 +1772,34 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635722</v>
+        <v>0.6816683458635715</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780336</v>
+        <v>0.476190715578035</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299557</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277802</v>
+        <v>0.476190715627782</v>
       </c>
       <c r="AL2">
-        <v>5.619264055562163E-13</v>
+        <v>5.534965078367967E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584275</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654784</v>
+        <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.609448367570525E-13</v>
+        <v>5.457238036978984E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552288</v>
@@ -1852,37 +1852,37 @@
         <v>-1.563194052511137E-14</v>
       </c>
       <c r="O3">
-        <v>2.43611530557365E-10</v>
+        <v>2.435814420089493E-10</v>
       </c>
       <c r="P3">
-        <v>6.797597827477959E-10</v>
+        <v>6.797757050436983E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841703877E-15</v>
+        <v>1.042129368340765E-14</v>
       </c>
       <c r="R3">
-        <v>-2.43593665971423E-10</v>
+        <v>-2.435712482155826E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797597827156841E-10</v>
+        <v>-6.797773869907039E-10</v>
       </c>
       <c r="T3">
-        <v>5.210646841703627E-15</v>
+        <v>5.210646841703629E-15</v>
       </c>
       <c r="U3">
-        <v>-1.940822143213295E-09</v>
+        <v>-1.940846982051266E-09</v>
       </c>
       <c r="V3">
-        <v>1.185349985864476E-09</v>
+        <v>1.185353312152233E-09</v>
       </c>
       <c r="W3">
-        <v>-1.04212936834075E-14</v>
+        <v>-1.042129368340745E-14</v>
       </c>
       <c r="X3">
-        <v>1.940830306777651E-09</v>
+        <v>1.940846387465816E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185349985828039E-09</v>
+        <v>-1.185357498228351E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1903,25 +1903,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
+        <v>1.100000023812018</v>
+      </c>
+      <c r="AG3">
+        <v>0.6816683458187505</v>
+      </c>
+      <c r="AH3">
+        <v>0.4761907156443641</v>
+      </c>
+      <c r="AI3">
         <v>1.100000023812017</v>
       </c>
-      <c r="AG3">
-        <v>0.6816683458187521</v>
-      </c>
-      <c r="AH3">
-        <v>0.4761907156443623</v>
-      </c>
-      <c r="AI3">
-        <v>1.100000023812018</v>
-      </c>
       <c r="AJ3">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299557</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277802</v>
+        <v>0.476190715627782</v>
       </c>
       <c r="AL3">
-        <v>5.435082623316418E-13</v>
+        <v>5.352236447596597E-13</v>
       </c>
       <c r="AM3">
         <v>-164.9034422541626</v>
@@ -1930,7 +1930,7 @@
         <v>158.1097491638463</v>
       </c>
       <c r="AO3">
-        <v>5.609448367570525E-13</v>
+        <v>5.457238036978984E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552288</v>
@@ -1980,40 +1980,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.0842587366815E-14</v>
+        <v>-2.605323420851908E-14</v>
       </c>
       <c r="O4">
-        <v>2.436024241533438E-10</v>
+        <v>2.435780780507114E-10</v>
       </c>
       <c r="P4">
-        <v>6.797681549729043E-10</v>
+        <v>6.797706967768274E-10</v>
       </c>
       <c r="Q4">
-        <v>1.042129368340745E-14</v>
+        <v>1.563194052511152E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435845595674015E-10</v>
+        <v>-2.43555413895087E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797681549407923E-10</v>
+        <v>-6.797807509489409E-10</v>
       </c>
       <c r="T4">
-        <v>-1.042129368340775E-14</v>
+        <v>2.084258736681486E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940837977533791E-09</v>
+        <v>-1.940834511689006E-09</v>
       </c>
       <c r="V4">
-        <v>1.185346621906238E-09</v>
+        <v>1.185365048335578E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340765E-14</v>
+        <v>-2.084258736681495E-14</v>
       </c>
       <c r="X4">
-        <v>1.940846141098146E-09</v>
+        <v>1.940837281061794E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185346621869802E-09</v>
+        <v>-1.185365870453459E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2034,25 +2034,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
+        <v>1.100000023812018</v>
+      </c>
+      <c r="AG4">
+        <v>0.6816683458187501</v>
+      </c>
+      <c r="AH4">
+        <v>0.476190715644364</v>
+      </c>
+      <c r="AI4">
         <v>1.100000023812017</v>
       </c>
-      <c r="AG4">
-        <v>0.681668345818752</v>
-      </c>
-      <c r="AH4">
-        <v>0.4761907156443624</v>
-      </c>
-      <c r="AI4">
-        <v>1.100000023812018</v>
-      </c>
       <c r="AJ4">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299557</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277802</v>
+        <v>0.476190715627782</v>
       </c>
       <c r="AL4">
-        <v>5.447990994124733E-13</v>
+        <v>5.389420549873834E-13</v>
       </c>
       <c r="AM4">
         <v>-164.9034422541626</v>
@@ -2061,7 +2061,7 @@
         <v>158.1097491638463</v>
       </c>
       <c r="AO4">
-        <v>5.609448367570525E-13</v>
+        <v>5.457238036978984E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552288</v>
@@ -2111,40 +2111,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.977129648728667E-28</v>
+        <v>5.210646841703922E-15</v>
       </c>
       <c r="O5">
-        <v>1.534158515026858E-14</v>
+        <v>1.895191106003724E-14</v>
       </c>
       <c r="P5">
-        <v>-6.690245989935963E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-1.563194052511117E-14</v>
+        <v>-1.563194052511143E-14</v>
       </c>
       <c r="R5">
-        <v>2.522968677878239E-15</v>
+        <v>-1.271672993089072E-14</v>
       </c>
       <c r="S5">
-        <v>6.690245989935963E-15</v>
+        <v>-2.504133435674985E-15</v>
       </c>
       <c r="T5">
-        <v>2.08425873668151E-14</v>
+        <v>-1.563194052511128E-14</v>
       </c>
       <c r="U5">
-        <v>1.751629961404952E-14</v>
+        <v>-8.265414461829305E-15</v>
       </c>
       <c r="V5">
-        <v>7.550070791432991E-15</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-1.563194052511147E-14</v>
+        <v>1.042129368340741E-14</v>
       </c>
       <c r="X5">
-        <v>-9.352771693719782E-15</v>
+        <v>9.947393580414788E-15</v>
       </c>
       <c r="Y5">
-        <v>-7.550070791432993E-15</v>
+        <v>5.86809167284701E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187521</v>
+        <v>0.6816683458187505</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443623</v>
+        <v>0.4761907156443641</v>
       </c>
       <c r="AI5">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ5">
-        <v>0.681668345818752</v>
+        <v>0.6816683458187501</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443624</v>
+        <v>0.476190715644364</v>
       </c>
       <c r="AL5">
-        <v>5.435082623316418E-13</v>
+        <v>5.352236447596597E-13</v>
       </c>
       <c r="AM5">
         <v>-164.9034422541626</v>
@@ -2192,7 +2192,7 @@
         <v>158.1097491638463</v>
       </c>
       <c r="AO5">
-        <v>5.447990994124733E-13</v>
+        <v>5.389420549873834E-13</v>
       </c>
       <c r="AP5">
         <v>-164.9034422541626</v>
@@ -2386,40 +2386,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.210646841703929E-15</v>
+        <v>2.605323420851922E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307564051549513E-10</v>
+        <v>-7.30753432045509E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307828491597E-09</v>
+        <v>-2.039308725986883E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052511143E-14</v>
+        <v>-4.689582157533431E-14</v>
       </c>
       <c r="R2">
-        <v>7.307617996355367E-10</v>
+        <v>7.307760964580404E-10</v>
       </c>
       <c r="S2">
-        <v>2.039299456555506E-09</v>
+        <v>2.039310408255024E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511128E-14</v>
+        <v>-3.647452789192617E-14</v>
       </c>
       <c r="U2">
-        <v>5.822474143464276E-09</v>
+        <v>5.82252511227054E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556048237506592E-09</v>
+        <v>-3.556086772344389E-09</v>
       </c>
       <c r="W2">
-        <v>1.04212936834074E-14</v>
+        <v>3.647452789192597E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822469343566672E-09</v>
+        <v>-5.822522342606261E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556051601792752E-09</v>
+        <v>3.556090958784872E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2440,34 +2440,34 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635722</v>
+        <v>0.6816683458635715</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780336</v>
+        <v>0.476190715578035</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299557</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277802</v>
+        <v>0.476190715627782</v>
       </c>
       <c r="AL2">
-        <v>5.619264055562163E-13</v>
+        <v>5.534965078367967E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584275</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654784</v>
+        <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.609448367570525E-13</v>
+        <v>5.457238036978984E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552288</v>
@@ -2520,37 +2520,37 @@
         <v>-1.563194052511137E-14</v>
       </c>
       <c r="O3">
-        <v>2.43611530557365E-10</v>
+        <v>2.435814420089493E-10</v>
       </c>
       <c r="P3">
-        <v>6.797597827477959E-10</v>
+        <v>6.797757050436983E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841703877E-15</v>
+        <v>1.042129368340765E-14</v>
       </c>
       <c r="R3">
-        <v>-2.43593665971423E-10</v>
+        <v>-2.435712482155826E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797597827156841E-10</v>
+        <v>-6.797773869907039E-10</v>
       </c>
       <c r="T3">
-        <v>5.210646841703627E-15</v>
+        <v>5.210646841703629E-15</v>
       </c>
       <c r="U3">
-        <v>-1.940822143213295E-09</v>
+        <v>-1.940846982051266E-09</v>
       </c>
       <c r="V3">
-        <v>1.185349985864476E-09</v>
+        <v>1.185353312152233E-09</v>
       </c>
       <c r="W3">
-        <v>-1.04212936834075E-14</v>
+        <v>-1.042129368340745E-14</v>
       </c>
       <c r="X3">
-        <v>1.940830306777651E-09</v>
+        <v>1.940846387465816E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185349985828039E-09</v>
+        <v>-1.185357498228351E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2571,25 +2571,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
+        <v>1.100000023812018</v>
+      </c>
+      <c r="AG3">
+        <v>0.6816683458187505</v>
+      </c>
+      <c r="AH3">
+        <v>0.4761907156443641</v>
+      </c>
+      <c r="AI3">
         <v>1.100000023812017</v>
       </c>
-      <c r="AG3">
-        <v>0.6816683458187521</v>
-      </c>
-      <c r="AH3">
-        <v>0.4761907156443623</v>
-      </c>
-      <c r="AI3">
-        <v>1.100000023812018</v>
-      </c>
       <c r="AJ3">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299557</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277802</v>
+        <v>0.476190715627782</v>
       </c>
       <c r="AL3">
-        <v>5.435082623316418E-13</v>
+        <v>5.352236447596597E-13</v>
       </c>
       <c r="AM3">
         <v>-164.9034422541626</v>
@@ -2598,7 +2598,7 @@
         <v>158.1097491638463</v>
       </c>
       <c r="AO3">
-        <v>5.609448367570525E-13</v>
+        <v>5.457238036978984E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552288</v>
@@ -2648,40 +2648,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.0842587366815E-14</v>
+        <v>-2.605323420851908E-14</v>
       </c>
       <c r="O4">
-        <v>2.436024241533438E-10</v>
+        <v>2.435780780507114E-10</v>
       </c>
       <c r="P4">
-        <v>6.797681549729043E-10</v>
+        <v>6.797706967768274E-10</v>
       </c>
       <c r="Q4">
-        <v>1.042129368340745E-14</v>
+        <v>1.563194052511152E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435845595674015E-10</v>
+        <v>-2.43555413895087E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797681549407923E-10</v>
+        <v>-6.797807509489409E-10</v>
       </c>
       <c r="T4">
-        <v>-1.042129368340775E-14</v>
+        <v>2.084258736681486E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940837977533791E-09</v>
+        <v>-1.940834511689006E-09</v>
       </c>
       <c r="V4">
-        <v>1.185346621906238E-09</v>
+        <v>1.185365048335578E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340765E-14</v>
+        <v>-2.084258736681495E-14</v>
       </c>
       <c r="X4">
-        <v>1.940846141098146E-09</v>
+        <v>1.940837281061794E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185346621869802E-09</v>
+        <v>-1.185365870453459E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2702,25 +2702,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
+        <v>1.100000023812018</v>
+      </c>
+      <c r="AG4">
+        <v>0.6816683458187501</v>
+      </c>
+      <c r="AH4">
+        <v>0.476190715644364</v>
+      </c>
+      <c r="AI4">
         <v>1.100000023812017</v>
       </c>
-      <c r="AG4">
-        <v>0.681668345818752</v>
-      </c>
-      <c r="AH4">
-        <v>0.4761907156443624</v>
-      </c>
-      <c r="AI4">
-        <v>1.100000023812018</v>
-      </c>
       <c r="AJ4">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299557</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277802</v>
+        <v>0.476190715627782</v>
       </c>
       <c r="AL4">
-        <v>5.447990994124733E-13</v>
+        <v>5.389420549873834E-13</v>
       </c>
       <c r="AM4">
         <v>-164.9034422541626</v>
@@ -2729,7 +2729,7 @@
         <v>158.1097491638463</v>
       </c>
       <c r="AO4">
-        <v>5.609448367570525E-13</v>
+        <v>5.457238036978984E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552288</v>
@@ -2779,40 +2779,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.977129648728667E-28</v>
+        <v>5.210646841703922E-15</v>
       </c>
       <c r="O5">
-        <v>1.534158515026858E-14</v>
+        <v>1.895191106003724E-14</v>
       </c>
       <c r="P5">
-        <v>-6.690245989935963E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-1.563194052511117E-14</v>
+        <v>-1.563194052511143E-14</v>
       </c>
       <c r="R5">
-        <v>2.522968677878239E-15</v>
+        <v>-1.271672993089072E-14</v>
       </c>
       <c r="S5">
-        <v>6.690245989935963E-15</v>
+        <v>-2.504133435674985E-15</v>
       </c>
       <c r="T5">
-        <v>2.08425873668151E-14</v>
+        <v>-1.563194052511128E-14</v>
       </c>
       <c r="U5">
-        <v>1.751629961404952E-14</v>
+        <v>-8.265414461829305E-15</v>
       </c>
       <c r="V5">
-        <v>7.550070791432991E-15</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-1.563194052511147E-14</v>
+        <v>1.042129368340741E-14</v>
       </c>
       <c r="X5">
-        <v>-9.352771693719782E-15</v>
+        <v>9.947393580414788E-15</v>
       </c>
       <c r="Y5">
-        <v>-7.550070791432993E-15</v>
+        <v>5.86809167284701E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2833,25 +2833,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187521</v>
+        <v>0.6816683458187505</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443623</v>
+        <v>0.4761907156443641</v>
       </c>
       <c r="AI5">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ5">
-        <v>0.681668345818752</v>
+        <v>0.6816683458187501</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443624</v>
+        <v>0.476190715644364</v>
       </c>
       <c r="AL5">
-        <v>5.435082623316418E-13</v>
+        <v>5.352236447596597E-13</v>
       </c>
       <c r="AM5">
         <v>-164.9034422541626</v>
@@ -2860,7 +2860,7 @@
         <v>158.1097491638463</v>
       </c>
       <c r="AO5">
-        <v>5.447990994124733E-13</v>
+        <v>5.389420549873834E-13</v>
       </c>
       <c r="AP5">
         <v>-164.9034422541626</v>
@@ -3054,40 +3054,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.131628207281076E-14</v>
+        <v>-7.105427357603539E-15</v>
       </c>
       <c r="O2">
-        <v>1.302651450832089E-14</v>
+        <v>1.065803871818542E-14</v>
       </c>
       <c r="P2">
-        <v>1.421075183225518E-14</v>
+        <v>-1.028872383377445E-19</v>
       </c>
       <c r="Q2">
-        <v>-2.131628207281077E-14</v>
+        <v>2.368475785867906E-15</v>
       </c>
       <c r="R2">
-        <v>-1.302583498009507E-14</v>
+        <v>-9.473121303392117E-15</v>
       </c>
       <c r="S2">
-        <v>-7.104644939524591E-15</v>
+        <v>2.369258203767442E-15</v>
       </c>
       <c r="T2">
-        <v>-1.421085471520683E-14</v>
+        <v>-8.814466544710205E-29</v>
       </c>
       <c r="U2">
-        <v>4.763111385045251E-09</v>
+        <v>4.763104279617889E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763132704818049E-09</v>
+        <v>-4.763090072253872E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520683E-14</v>
+        <v>-4.736951571735663E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763111384643682E-09</v>
+        <v>-4.763101910740539E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364889E-09</v>
+        <v>4.763104283510152E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000356</v>
+        <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169629</v>
+        <v>0.4999999998169622</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833955</v>
+        <v>0.5000000001833937</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748085</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225547</v>
       </c>
       <c r="AL2">
-        <v>6.493179824892998E-13</v>
+        <v>7.107689745511228E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
@@ -3135,13 +3135,13 @@
         <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>6.429971712676169E-13</v>
+        <v>7.282538709608499E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3185,40 +3185,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.131628207281072E-14</v>
+        <v>-1.894780628694283E-14</v>
       </c>
       <c r="O3">
-        <v>-1.065780491484833E-14</v>
+        <v>1.184574011734652E-15</v>
       </c>
       <c r="P3">
-        <v>-4.736615260736931E-15</v>
+        <v>4.737287886511616E-15</v>
       </c>
       <c r="Q3">
-        <v>1.894780628694293E-14</v>
+        <v>1.657933050107505E-14</v>
       </c>
       <c r="R3">
-        <v>1.065788041846238E-14</v>
+        <v>4.736690956109138E-15</v>
       </c>
       <c r="S3">
-        <v>1.184211812498944E-14</v>
+        <v>-2.368736595139821E-15</v>
       </c>
       <c r="T3">
-        <v>9.473903143471146E-15</v>
+        <v>4.736951571735456E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587710110772036E-09</v>
+        <v>-1.587717216199388E-09</v>
       </c>
       <c r="V3">
-        <v>1.587717217719922E-09</v>
+        <v>1.58772195467149E-09</v>
       </c>
       <c r="W3">
-        <v>-1.421085471520686E-14</v>
+        <v>-9.473903143471178E-15</v>
       </c>
       <c r="X3">
-        <v>1.587710110816654E-09</v>
+        <v>1.587710110816653E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.587717217675297E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3242,37 +3242,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607574</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395987</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748085</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225547</v>
       </c>
       <c r="AL3">
-        <v>6.304574187411997E-13</v>
+        <v>7.126635378963481E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO3">
-        <v>6.429971712676169E-13</v>
+        <v>7.282538709608499E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3316,40 +3316,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.894780628694292E-14</v>
+        <v>-2.131628207281067E-14</v>
       </c>
       <c r="O4">
-        <v>-1.18390177520837E-15</v>
+        <v>-3.552377559738411E-15</v>
       </c>
       <c r="P4">
-        <v>-9.473566834740874E-15</v>
+        <v>4.737287883799757E-15</v>
       </c>
       <c r="Q4">
-        <v>1.894780628694293E-14</v>
+        <v>1.894780628694283E-14</v>
       </c>
       <c r="R4">
-        <v>5.920928847306737E-15</v>
+        <v>4.736690956109138E-15</v>
       </c>
       <c r="S4">
-        <v>1.657906969886026E-14</v>
+        <v>2.368214980287233E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520686E-14</v>
+        <v>4.736951571735429E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587710110772034E-09</v>
+        <v>-1.58770774229625E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719922E-09</v>
+        <v>1.587712480768341E-09</v>
       </c>
       <c r="W4">
-        <v>-1.421085471520686E-14</v>
+        <v>-4.736951571735452E-15</v>
       </c>
       <c r="X4">
-        <v>1.587719584719793E-09</v>
+        <v>1.587710110816653E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.58770774377215E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3373,37 +3373,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607574</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395985</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748085</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225547</v>
       </c>
       <c r="AL4">
-        <v>6.268133933251543E-13</v>
+        <v>7.076357455214681E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO4">
-        <v>6.429971712676169E-13</v>
+        <v>7.282538709608499E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -3447,40 +3447,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785867794E-15</v>
+        <v>2.368475785867787E-15</v>
       </c>
       <c r="O5">
-        <v>-7.105427355705368E-15</v>
+        <v>9.473903141441909E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>4.013539166405416E-24</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-2.368475785867846E-15</v>
       </c>
       <c r="R5">
-        <v>9.473903140439092E-15</v>
+        <v>2.368475785235126E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427358999136E-15</v>
+        <v>4.736951568987021E-15</v>
       </c>
       <c r="T5">
-        <v>-4.736951571735718E-15</v>
+        <v>4.736951571735721E-15</v>
       </c>
       <c r="U5">
-        <v>7.105427352696946E-15</v>
+        <v>-1.184237892166298E-14</v>
       </c>
       <c r="V5">
-        <v>4.736951574003945E-15</v>
+        <v>1.894780629601575E-14</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-2.925203466512784E-29</v>
       </c>
       <c r="X5">
-        <v>-7.105427352195539E-15</v>
+        <v>-2.368475784232314E-15</v>
       </c>
       <c r="Y5">
-        <v>-9.473903149512974E-15</v>
+        <v>-2.368475787102305E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -3504,37 +3504,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607574</v>
       </c>
       <c r="AH5">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395987</v>
       </c>
       <c r="AI5">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607574</v>
       </c>
       <c r="AK5">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395985</v>
       </c>
       <c r="AL5">
-        <v>6.304574187411997E-13</v>
+        <v>7.126635378963481E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN5">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO5">
-        <v>6.268133933251543E-13</v>
+        <v>7.076357455214681E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
     </row>
   </sheetData>
@@ -3722,40 +3722,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.131628207281076E-14</v>
+        <v>-7.105427357603539E-15</v>
       </c>
       <c r="O2">
-        <v>1.302651450832089E-14</v>
+        <v>1.065803871818542E-14</v>
       </c>
       <c r="P2">
-        <v>1.421075183225518E-14</v>
+        <v>-1.028872383377445E-19</v>
       </c>
       <c r="Q2">
-        <v>-2.131628207281077E-14</v>
+        <v>2.368475785867906E-15</v>
       </c>
       <c r="R2">
-        <v>-1.302583498009507E-14</v>
+        <v>-9.473121303392117E-15</v>
       </c>
       <c r="S2">
-        <v>-7.104644939524591E-15</v>
+        <v>2.369258203767442E-15</v>
       </c>
       <c r="T2">
-        <v>-1.421085471520683E-14</v>
+        <v>-8.814466544710205E-29</v>
       </c>
       <c r="U2">
-        <v>4.763111385045251E-09</v>
+        <v>4.763104279617889E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763132704818049E-09</v>
+        <v>-4.763090072253872E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520683E-14</v>
+        <v>-4.736951571735663E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763111384643682E-09</v>
+        <v>-4.763101910740539E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364889E-09</v>
+        <v>4.763104283510152E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3776,25 +3776,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000356</v>
+        <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169629</v>
+        <v>0.4999999998169622</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833955</v>
+        <v>0.5000000001833937</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748085</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225547</v>
       </c>
       <c r="AL2">
-        <v>6.493179824892998E-13</v>
+        <v>7.107689745511228E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
@@ -3803,13 +3803,13 @@
         <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>6.429971712676169E-13</v>
+        <v>7.282538709608499E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3853,40 +3853,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.131628207281072E-14</v>
+        <v>-1.894780628694283E-14</v>
       </c>
       <c r="O3">
-        <v>-1.065780491484833E-14</v>
+        <v>1.184574011734652E-15</v>
       </c>
       <c r="P3">
-        <v>-4.736615260736931E-15</v>
+        <v>4.737287886511616E-15</v>
       </c>
       <c r="Q3">
-        <v>1.894780628694293E-14</v>
+        <v>1.657933050107505E-14</v>
       </c>
       <c r="R3">
-        <v>1.065788041846238E-14</v>
+        <v>4.736690956109138E-15</v>
       </c>
       <c r="S3">
-        <v>1.184211812498944E-14</v>
+        <v>-2.368736595139821E-15</v>
       </c>
       <c r="T3">
-        <v>9.473903143471146E-15</v>
+        <v>4.736951571735456E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587710110772036E-09</v>
+        <v>-1.587717216199388E-09</v>
       </c>
       <c r="V3">
-        <v>1.587717217719922E-09</v>
+        <v>1.58772195467149E-09</v>
       </c>
       <c r="W3">
-        <v>-1.421085471520686E-14</v>
+        <v>-9.473903143471178E-15</v>
       </c>
       <c r="X3">
-        <v>1.587710110816654E-09</v>
+        <v>1.587710110816653E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.587717217675297E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3910,37 +3910,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607574</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395987</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748085</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225547</v>
       </c>
       <c r="AL3">
-        <v>6.304574187411997E-13</v>
+        <v>7.126635378963481E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO3">
-        <v>6.429971712676169E-13</v>
+        <v>7.282538709608499E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3984,40 +3984,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.894780628694292E-14</v>
+        <v>-2.131628207281067E-14</v>
       </c>
       <c r="O4">
-        <v>-1.18390177520837E-15</v>
+        <v>-3.552377559738411E-15</v>
       </c>
       <c r="P4">
-        <v>-9.473566834740874E-15</v>
+        <v>4.737287883799757E-15</v>
       </c>
       <c r="Q4">
-        <v>1.894780628694293E-14</v>
+        <v>1.894780628694283E-14</v>
       </c>
       <c r="R4">
-        <v>5.920928847306737E-15</v>
+        <v>4.736690956109138E-15</v>
       </c>
       <c r="S4">
-        <v>1.657906969886026E-14</v>
+        <v>2.368214980287233E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520686E-14</v>
+        <v>4.736951571735429E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587710110772034E-09</v>
+        <v>-1.58770774229625E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719922E-09</v>
+        <v>1.587712480768341E-09</v>
       </c>
       <c r="W4">
-        <v>-1.421085471520686E-14</v>
+        <v>-4.736951571735452E-15</v>
       </c>
       <c r="X4">
-        <v>1.587719584719793E-09</v>
+        <v>1.587710110816653E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.58770774377215E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4041,37 +4041,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607574</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395985</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748085</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225547</v>
       </c>
       <c r="AL4">
-        <v>6.268133933251543E-13</v>
+        <v>7.076357455214681E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO4">
-        <v>6.429971712676169E-13</v>
+        <v>7.282538709608499E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4115,40 +4115,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785867794E-15</v>
+        <v>2.368475785867787E-15</v>
       </c>
       <c r="O5">
-        <v>-7.105427355705368E-15</v>
+        <v>9.473903141441909E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>4.013539166405416E-24</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-2.368475785867846E-15</v>
       </c>
       <c r="R5">
-        <v>9.473903140439092E-15</v>
+        <v>2.368475785235126E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427358999136E-15</v>
+        <v>4.736951568987021E-15</v>
       </c>
       <c r="T5">
-        <v>-4.736951571735718E-15</v>
+        <v>4.736951571735721E-15</v>
       </c>
       <c r="U5">
-        <v>7.105427352696946E-15</v>
+        <v>-1.184237892166298E-14</v>
       </c>
       <c r="V5">
-        <v>4.736951574003945E-15</v>
+        <v>1.894780629601575E-14</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-2.925203466512784E-29</v>
       </c>
       <c r="X5">
-        <v>-7.105427352195539E-15</v>
+        <v>-2.368475784232314E-15</v>
       </c>
       <c r="Y5">
-        <v>-9.473903149512974E-15</v>
+        <v>-2.368475787102305E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4172,37 +4172,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607574</v>
       </c>
       <c r="AH5">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395987</v>
       </c>
       <c r="AI5">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607574</v>
       </c>
       <c r="AK5">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395985</v>
       </c>
       <c r="AL5">
-        <v>6.304574187411997E-13</v>
+        <v>7.126635378963481E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN5">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO5">
-        <v>6.268133933251543E-13</v>
+        <v>7.076357455214681E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
     </row>
   </sheetData>
@@ -4390,40 +4390,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.605323364468834E-14</v>
+        <v>2.36847578588074E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559438601015702E-10</v>
+        <v>-5.559460775662504E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551456747312587E-09</v>
+        <v>-1.551450500589831E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.894780628704615E-14</v>
+        <v>-2.368475785880716E-15</v>
       </c>
       <c r="R2">
-        <v>5.559442358533699E-10</v>
+        <v>5.559447477963458E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457323156361E-09</v>
+        <v>1.551455745049716E-09</v>
       </c>
       <c r="T2">
-        <v>-2.131628207292642E-14</v>
+        <v>2.476573346968514E-29</v>
       </c>
       <c r="U2">
-        <v>4.833145536304521E-09</v>
+        <v>4.833124250591598E-09</v>
       </c>
       <c r="V2">
-        <v>-3.108898961877404E-09</v>
+        <v>-3.108875002291951E-09</v>
       </c>
       <c r="W2">
-        <v>2.368475785880723E-14</v>
+        <v>-2.368475785880766E-15</v>
       </c>
       <c r="X2">
-        <v>-4.833140999161421E-09</v>
+        <v>-4.833112720523065E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108894400389425E-09</v>
+        <v>3.108877517720877E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4450,28 +4450,28 @@
         <v>0.6078088903891389</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140596</v>
+        <v>0.4340870104140589</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608014</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725127</v>
       </c>
       <c r="AL2">
-        <v>5.449228582527957E-13</v>
+        <v>5.991076678164675E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346806</v>
+        <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>5.379631538231196E-13</v>
+        <v>6.106453698978866E-13</v>
       </c>
       <c r="AP2">
         <v>-166.2935793242506</v>
@@ -4521,40 +4521,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116521E-14</v>
+        <v>-4.736951571761381E-15</v>
       </c>
       <c r="O3">
-        <v>1.853108906868387E-10</v>
+        <v>1.853129714806067E-10</v>
       </c>
       <c r="P3">
-        <v>5.171548356926079E-10</v>
+        <v>5.17157926202079E-10</v>
       </c>
       <c r="Q3">
-        <v>2.131628207292667E-14</v>
+        <v>2.368475785880665E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853091509441078E-10</v>
+        <v>-1.85312937259575E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171528958579068E-10</v>
+        <v>-5.171526821686218E-10</v>
       </c>
       <c r="T3">
-        <v>2.368475785880587E-15</v>
+        <v>-9.473903143523008E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611049421587082E-09</v>
+        <v>-1.611051877652916E-09</v>
       </c>
       <c r="V3">
-        <v>1.03629874447356E-09</v>
+        <v>1.036288938721928E-09</v>
       </c>
       <c r="W3">
-        <v>2.001434386474658E-28</v>
+        <v>7.105427357642247E-15</v>
       </c>
       <c r="X3">
-        <v>1.611048364137834E-09</v>
+        <v>1.611057813129105E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.03629942665074E-09</v>
+        <v>-1.036286423544993E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513554</v>
+        <v>0.6078088903513558</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919975</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608014</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725127</v>
       </c>
       <c r="AL3">
-        <v>5.299044281279242E-13</v>
+        <v>5.960799007336973E-13</v>
       </c>
       <c r="AM3">
         <v>-166.2935793222524</v>
@@ -4602,7 +4602,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO3">
-        <v>5.379631538231196E-13</v>
+        <v>6.106453698978866E-13</v>
       </c>
       <c r="AP3">
         <v>-166.2935793242506</v>
@@ -4652,40 +4652,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.18423789294037E-14</v>
+        <v>-7.1054273576421E-15</v>
       </c>
       <c r="O4">
-        <v>1.853234437848968E-10</v>
+        <v>1.853171330681419E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831363E-10</v>
+        <v>5.171501670764891E-10</v>
       </c>
       <c r="Q4">
-        <v>1.421085471528444E-14</v>
+        <v>7.105427357642095E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853202712893511E-10</v>
+        <v>-1.85315666094295E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171503807124721E-10</v>
+        <v>-5.17151531440547E-10</v>
       </c>
       <c r="T4">
-        <v>-1.093121344354784E-28</v>
+        <v>-1.184237892940378E-14</v>
       </c>
       <c r="U4">
-        <v>-1.61105228709271E-09</v>
+        <v>-1.611056789784585E-09</v>
       </c>
       <c r="V4">
-        <v>1.03630855022519E-09</v>
+        <v>1.036291667556648E-09</v>
       </c>
       <c r="W4">
-        <v>1.334289590983106E-28</v>
+        <v>1.184237892940378E-14</v>
       </c>
       <c r="X4">
-        <v>1.611057506192491E-09</v>
+        <v>1.611069001809802E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036304670630895E-09</v>
+        <v>-1.036295547087942E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4709,22 +4709,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513558</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919973</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608014</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725127</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>5.909315894823392E-13</v>
       </c>
       <c r="AM4">
         <v>-166.2935793222524</v>
@@ -4733,7 +4733,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO4">
-        <v>5.379631538231196E-13</v>
+        <v>6.106453698978866E-13</v>
       </c>
       <c r="AP4">
         <v>-166.2935793242506</v>
@@ -4783,40 +4783,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-4.736951571761503E-15</v>
+        <v>2.36847578588069E-15</v>
       </c>
       <c r="O5">
-        <v>-1.07792409033319E-14</v>
+        <v>-9.891452931428234E-16</v>
       </c>
       <c r="P5">
-        <v>3.879562794843453E-15</v>
+        <v>4.454926832086009E-15</v>
       </c>
       <c r="Q5">
-        <v>7.105427357642221E-15</v>
+        <v>-7.105427357642196E-15</v>
       </c>
       <c r="R5">
-        <v>1.149561731041243E-14</v>
+        <v>1.364417360178683E-15</v>
       </c>
       <c r="S5">
-        <v>-1.939781397421726E-15</v>
+        <v>-1.939781397421721E-15</v>
       </c>
       <c r="T5">
-        <v>2.368475785880697E-15</v>
+        <v>4.736951571761504E-15</v>
       </c>
       <c r="U5">
-        <v>7.743469569921062E-15</v>
+        <v>1.013119995023375E-14</v>
       </c>
       <c r="V5">
-        <v>-1.36441736017916E-15</v>
+        <v>-5.92618883511218E-15</v>
       </c>
       <c r="W5">
-        <v>6.558728066128705E-29</v>
+        <v>-2.368475785880814E-15</v>
       </c>
       <c r="X5">
-        <v>-4.605195055536653E-15</v>
+        <v>-5.594340348679475E-15</v>
       </c>
       <c r="Y5">
-        <v>6.822086800895803E-16</v>
+        <v>6.822086800895787E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4840,22 +4840,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513554</v>
+        <v>0.6078088903513558</v>
       </c>
       <c r="AH5">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919975</v>
       </c>
       <c r="AI5">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513558</v>
       </c>
       <c r="AK5">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919973</v>
       </c>
       <c r="AL5">
-        <v>5.299044281279242E-13</v>
+        <v>5.960799007336973E-13</v>
       </c>
       <c r="AM5">
         <v>-166.2935793222524</v>
@@ -4864,7 +4864,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO5">
-        <v>5.288738006152195E-13</v>
+        <v>5.909315894823392E-13</v>
       </c>
       <c r="AP5">
         <v>-166.2935793222524</v>
@@ -5058,40 +5058,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.605323364468834E-14</v>
+        <v>2.36847578588074E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559438601015702E-10</v>
+        <v>-5.559460775662504E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551456747312587E-09</v>
+        <v>-1.551450500589831E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.894780628704615E-14</v>
+        <v>-2.368475785880716E-15</v>
       </c>
       <c r="R2">
-        <v>5.559442358533699E-10</v>
+        <v>5.559447477963458E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457323156361E-09</v>
+        <v>1.551455745049716E-09</v>
       </c>
       <c r="T2">
-        <v>-2.131628207292642E-14</v>
+        <v>2.476573346968514E-29</v>
       </c>
       <c r="U2">
-        <v>4.833145536304521E-09</v>
+        <v>4.833124250591598E-09</v>
       </c>
       <c r="V2">
-        <v>-3.108898961877404E-09</v>
+        <v>-3.108875002291951E-09</v>
       </c>
       <c r="W2">
-        <v>2.368475785880723E-14</v>
+        <v>-2.368475785880766E-15</v>
       </c>
       <c r="X2">
-        <v>-4.833140999161421E-09</v>
+        <v>-4.833112720523065E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108894400389425E-09</v>
+        <v>3.108877517720877E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5118,28 +5118,28 @@
         <v>0.6078088903891389</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140596</v>
+        <v>0.4340870104140589</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608014</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725127</v>
       </c>
       <c r="AL2">
-        <v>5.449228582527957E-13</v>
+        <v>5.991076678164675E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346806</v>
+        <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>5.379631538231196E-13</v>
+        <v>6.106453698978866E-13</v>
       </c>
       <c r="AP2">
         <v>-166.2935793242506</v>
@@ -5189,40 +5189,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116521E-14</v>
+        <v>-4.736951571761381E-15</v>
       </c>
       <c r="O3">
-        <v>1.853108906868387E-10</v>
+        <v>1.853129714806067E-10</v>
       </c>
       <c r="P3">
-        <v>5.171548356926079E-10</v>
+        <v>5.17157926202079E-10</v>
       </c>
       <c r="Q3">
-        <v>2.131628207292667E-14</v>
+        <v>2.368475785880665E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853091509441078E-10</v>
+        <v>-1.85312937259575E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171528958579068E-10</v>
+        <v>-5.171526821686218E-10</v>
       </c>
       <c r="T3">
-        <v>2.368475785880587E-15</v>
+        <v>-9.473903143523008E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611049421587082E-09</v>
+        <v>-1.611051877652916E-09</v>
       </c>
       <c r="V3">
-        <v>1.03629874447356E-09</v>
+        <v>1.036288938721928E-09</v>
       </c>
       <c r="W3">
-        <v>2.001434386474658E-28</v>
+        <v>7.105427357642247E-15</v>
       </c>
       <c r="X3">
-        <v>1.611048364137834E-09</v>
+        <v>1.611057813129105E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.03629942665074E-09</v>
+        <v>-1.036286423544993E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5246,22 +5246,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513554</v>
+        <v>0.6078088903513558</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919975</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608014</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725127</v>
       </c>
       <c r="AL3">
-        <v>5.299044281279242E-13</v>
+        <v>5.960799007336973E-13</v>
       </c>
       <c r="AM3">
         <v>-166.2935793222524</v>
@@ -5270,7 +5270,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO3">
-        <v>5.379631538231196E-13</v>
+        <v>6.106453698978866E-13</v>
       </c>
       <c r="AP3">
         <v>-166.2935793242506</v>
@@ -5320,40 +5320,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.18423789294037E-14</v>
+        <v>-7.1054273576421E-15</v>
       </c>
       <c r="O4">
-        <v>1.853234437848968E-10</v>
+        <v>1.853171330681419E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831363E-10</v>
+        <v>5.171501670764891E-10</v>
       </c>
       <c r="Q4">
-        <v>1.421085471528444E-14</v>
+        <v>7.105427357642095E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853202712893511E-10</v>
+        <v>-1.85315666094295E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171503807124721E-10</v>
+        <v>-5.17151531440547E-10</v>
       </c>
       <c r="T4">
-        <v>-1.093121344354784E-28</v>
+        <v>-1.184237892940378E-14</v>
       </c>
       <c r="U4">
-        <v>-1.61105228709271E-09</v>
+        <v>-1.611056789784585E-09</v>
       </c>
       <c r="V4">
-        <v>1.03630855022519E-09</v>
+        <v>1.036291667556648E-09</v>
       </c>
       <c r="W4">
-        <v>1.334289590983106E-28</v>
+        <v>1.184237892940378E-14</v>
       </c>
       <c r="X4">
-        <v>1.611057506192491E-09</v>
+        <v>1.611069001809802E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036304670630895E-09</v>
+        <v>-1.036295547087942E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5377,22 +5377,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513558</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919973</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608014</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725127</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>5.909315894823392E-13</v>
       </c>
       <c r="AM4">
         <v>-166.2935793222524</v>
@@ -5401,7 +5401,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO4">
-        <v>5.379631538231196E-13</v>
+        <v>6.106453698978866E-13</v>
       </c>
       <c r="AP4">
         <v>-166.2935793242506</v>
@@ -5451,40 +5451,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-4.736951571761503E-15</v>
+        <v>2.36847578588069E-15</v>
       </c>
       <c r="O5">
-        <v>-1.07792409033319E-14</v>
+        <v>-9.891452931428234E-16</v>
       </c>
       <c r="P5">
-        <v>3.879562794843453E-15</v>
+        <v>4.454926832086009E-15</v>
       </c>
       <c r="Q5">
-        <v>7.105427357642221E-15</v>
+        <v>-7.105427357642196E-15</v>
       </c>
       <c r="R5">
-        <v>1.149561731041243E-14</v>
+        <v>1.364417360178683E-15</v>
       </c>
       <c r="S5">
-        <v>-1.939781397421726E-15</v>
+        <v>-1.939781397421721E-15</v>
       </c>
       <c r="T5">
-        <v>2.368475785880697E-15</v>
+        <v>4.736951571761504E-15</v>
       </c>
       <c r="U5">
-        <v>7.743469569921062E-15</v>
+        <v>1.013119995023375E-14</v>
       </c>
       <c r="V5">
-        <v>-1.36441736017916E-15</v>
+        <v>-5.92618883511218E-15</v>
       </c>
       <c r="W5">
-        <v>6.558728066128705E-29</v>
+        <v>-2.368475785880814E-15</v>
       </c>
       <c r="X5">
-        <v>-4.605195055536653E-15</v>
+        <v>-5.594340348679475E-15</v>
       </c>
       <c r="Y5">
-        <v>6.822086800895803E-16</v>
+        <v>6.822086800895787E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513554</v>
+        <v>0.6078088903513558</v>
       </c>
       <c r="AH5">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919975</v>
       </c>
       <c r="AI5">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513558</v>
       </c>
       <c r="AK5">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919973</v>
       </c>
       <c r="AL5">
-        <v>5.299044281279242E-13</v>
+        <v>5.960799007336973E-13</v>
       </c>
       <c r="AM5">
         <v>-166.2935793222524</v>
@@ -5532,7 +5532,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO5">
-        <v>5.288738006152195E-13</v>
+        <v>5.909315894823392E-13</v>
       </c>
       <c r="AP5">
         <v>-166.2935793222524</v>
@@ -5729,40 +5729,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957756375909227E-09</v>
+        <v>-2.957780692261152E-09</v>
       </c>
       <c r="O2">
-        <v>-7.39469138691326E-10</v>
+        <v>-7.394600367663289E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394012416465706E-10</v>
+        <v>-7.394104370984807E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957755941942429E-09</v>
+        <v>2.957779824073787E-09</v>
       </c>
       <c r="R2">
-        <v>7.394687045341993E-10</v>
+        <v>7.394641151617395E-10</v>
       </c>
       <c r="S2">
-        <v>7.394048858214109E-10</v>
+        <v>7.394329999246002E-10</v>
       </c>
       <c r="T2">
-        <v>2.084173012249856E-14</v>
+        <v>7.815112999049563E-15</v>
       </c>
       <c r="U2">
-        <v>-3.842211983831569E-09</v>
+        <v>-3.842286270601578E-09</v>
       </c>
       <c r="V2">
-        <v>3.842284716167732E-09</v>
+        <v>3.842259548081638E-09</v>
       </c>
       <c r="W2">
-        <v>-1.823611876698371E-14</v>
+        <v>1.738027482964999E-15</v>
       </c>
       <c r="X2">
-        <v>3.842209727627284E-09</v>
+        <v>3.842283145956156E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.84227933510207E-09</v>
+        <v>-3.842255205803951E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5783,40 +5783,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541439</v>
+        <v>0.3666666746541437</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760887</v>
+        <v>0.97010883517609</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717373</v>
+        <v>0.9701088350717383</v>
       </c>
       <c r="AJ2">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856038</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965892</v>
       </c>
       <c r="AL2">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571848</v>
       </c>
       <c r="AM2">
-        <v>1.660604809896655E-08</v>
+        <v>1.66062487978645E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492836</v>
+        <v>-100.8933946492837</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504708</v>
+        <v>100.8933946504709</v>
       </c>
       <c r="AP2">
-        <v>2.218376233036782E-08</v>
+        <v>2.218395073233326E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5860,40 +5860,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859182131217694E-10</v>
+        <v>9.859321081800194E-10</v>
       </c>
       <c r="O3">
-        <v>2.464984485499971E-10</v>
+        <v>2.464699002262403E-10</v>
       </c>
       <c r="P3">
-        <v>2.464646511694585E-10</v>
+        <v>2.464566648523629E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859151735495849E-10</v>
+        <v>-9.859329765929625E-10</v>
       </c>
       <c r="R3">
-        <v>-2.465079078685894E-10</v>
+        <v>-2.464748469922973E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464519819459445E-10</v>
+        <v>-2.464521522927791E-10</v>
       </c>
       <c r="T3">
-        <v>-6.947115403829659E-15</v>
+        <v>-6.078674253347985E-15</v>
       </c>
       <c r="U3">
-        <v>1.28073408690939E-09</v>
+        <v>1.28075595993125E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280765159353034E-09</v>
+        <v>-1.280747977584036E-09</v>
       </c>
       <c r="W3">
-        <v>1.64999999427329E-14</v>
+        <v>8.684029668302934E-15</v>
       </c>
       <c r="X3">
-        <v>-1.280734606295378E-09</v>
+        <v>-1.280757347758379E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280772277236989E-09</v>
+        <v>1.280748846033175E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5914,40 +5914,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034217</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523337</v>
       </c>
       <c r="AJ3">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856038</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965892</v>
       </c>
       <c r="AL3">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571848</v>
       </c>
       <c r="AM3">
-        <v>2.40429888495575E-08</v>
+        <v>2.404322995320294E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502345</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP3">
-        <v>2.218376233036782E-08</v>
+        <v>2.218395073233326E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5991,40 +5991,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859147393572045E-10</v>
+        <v>9.859321081800137E-10</v>
       </c>
       <c r="O4">
-        <v>2.464911603272067E-10</v>
+        <v>2.464789253313118E-10</v>
       </c>
       <c r="P4">
-        <v>2.464620458460369E-10</v>
+        <v>2.464863454909948E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859151735495824E-10</v>
+        <v>-9.859295028283954E-10</v>
       </c>
       <c r="R4">
-        <v>-2.465014880869395E-10</v>
+        <v>-2.464821352150878E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464575332864526E-10</v>
+        <v>-2.464728078263407E-10</v>
       </c>
       <c r="T4">
-        <v>4.137185029558344E-19</v>
+        <v>7.816383994135721E-15</v>
       </c>
       <c r="U4">
-        <v>1.280744848896742E-09</v>
+        <v>1.280754223048969E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280751621695429E-09</v>
+        <v>-1.280756304594798E-09</v>
       </c>
       <c r="W4">
-        <v>9.552470818915106E-15</v>
+        <v>-5.211028577987687E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280749880835266E-09</v>
+        <v>-1.280746585771027E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280752490144568E-09</v>
+        <v>1.280758909926217E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6045,40 +6045,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034221</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523336</v>
       </c>
       <c r="AJ4">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856038</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965892</v>
       </c>
       <c r="AL4">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571848</v>
       </c>
       <c r="AM4">
-        <v>2.404297570527625E-08</v>
+        <v>2.404319803138071E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502345</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP4">
-        <v>2.218376233036782E-08</v>
+        <v>2.218395073233326E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6122,40 +6122,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.079087982421157E-15</v>
+        <v>3.473764563830387E-15</v>
       </c>
       <c r="O5">
-        <v>-3.776048263742492E-15</v>
+        <v>-2.060877011250938E-14</v>
       </c>
       <c r="P5">
-        <v>1.423575191301074E-14</v>
+        <v>-1.440609874549901E-14</v>
       </c>
       <c r="Q5">
-        <v>-3.907985134445813E-15</v>
+        <v>-7.815970267069552E-15</v>
       </c>
       <c r="R5">
-        <v>-1.223499589643031E-14</v>
+        <v>5.249056807713101E-15</v>
       </c>
       <c r="S5">
-        <v>-8.854758237509651E-15</v>
+        <v>1.891865128049796E-14</v>
       </c>
       <c r="T5">
-        <v>2.605323424057147E-15</v>
+        <v>-4.342205701052607E-15</v>
       </c>
       <c r="U5">
-        <v>-7.462746367272616E-15</v>
+        <v>1.449544890789785E-14</v>
       </c>
       <c r="V5">
-        <v>-2.533843292898942E-14</v>
+        <v>1.907229113492519E-15</v>
       </c>
       <c r="W5">
-        <v>5.210646841372462E-15</v>
+        <v>6.079087980234604E-15</v>
       </c>
       <c r="X5">
-        <v>9.374152225097855E-15</v>
+        <v>-9.199628648276743E-15</v>
       </c>
       <c r="Y5">
-        <v>2.169432153449261E-14</v>
+        <v>-1.038787972990368E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6176,40 +6176,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AH5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034217</v>
       </c>
       <c r="AI5">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523337</v>
       </c>
       <c r="AJ5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AK5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034221</v>
       </c>
       <c r="AL5">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523336</v>
       </c>
       <c r="AM5">
-        <v>2.40429888495575E-08</v>
+        <v>2.404322995320294E-08</v>
       </c>
       <c r="AN5">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502345</v>
       </c>
       <c r="AO5">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP5">
-        <v>2.404297570527625E-08</v>
+        <v>2.404319803138071E-08</v>
       </c>
       <c r="AQ5">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502345</v>
       </c>
       <c r="AR5">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
     </row>
   </sheetData>
@@ -6400,40 +6400,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957756375909227E-09</v>
+        <v>-2.957780692261152E-09</v>
       </c>
       <c r="O2">
-        <v>-7.39469138691326E-10</v>
+        <v>-7.394600367663289E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394012416465706E-10</v>
+        <v>-7.394104370984807E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957755941942429E-09</v>
+        <v>2.957779824073787E-09</v>
       </c>
       <c r="R2">
-        <v>7.394687045341993E-10</v>
+        <v>7.394641151617395E-10</v>
       </c>
       <c r="S2">
-        <v>7.394048858214109E-10</v>
+        <v>7.394329999246002E-10</v>
       </c>
       <c r="T2">
-        <v>2.084173012249856E-14</v>
+        <v>7.815112999049563E-15</v>
       </c>
       <c r="U2">
-        <v>-3.842211983831569E-09</v>
+        <v>-3.842286270601578E-09</v>
       </c>
       <c r="V2">
-        <v>3.842284716167732E-09</v>
+        <v>3.842259548081638E-09</v>
       </c>
       <c r="W2">
-        <v>-1.823611876698371E-14</v>
+        <v>1.738027482964999E-15</v>
       </c>
       <c r="X2">
-        <v>3.842209727627284E-09</v>
+        <v>3.842283145956156E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.84227933510207E-09</v>
+        <v>-3.842255205803951E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6454,40 +6454,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541439</v>
+        <v>0.3666666746541437</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760887</v>
+        <v>0.97010883517609</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717373</v>
+        <v>0.9701088350717383</v>
       </c>
       <c r="AJ2">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856038</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965892</v>
       </c>
       <c r="AL2">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571848</v>
       </c>
       <c r="AM2">
-        <v>1.660604809896655E-08</v>
+        <v>1.66062487978645E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492836</v>
+        <v>-100.8933946492837</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504708</v>
+        <v>100.8933946504709</v>
       </c>
       <c r="AP2">
-        <v>2.218376233036782E-08</v>
+        <v>2.218395073233326E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6531,40 +6531,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859182131217694E-10</v>
+        <v>9.859321081800194E-10</v>
       </c>
       <c r="O3">
-        <v>2.464984485499971E-10</v>
+        <v>2.464699002262403E-10</v>
       </c>
       <c r="P3">
-        <v>2.464646511694585E-10</v>
+        <v>2.464566648523629E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859151735495849E-10</v>
+        <v>-9.859329765929625E-10</v>
       </c>
       <c r="R3">
-        <v>-2.465079078685894E-10</v>
+        <v>-2.464748469922973E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464519819459445E-10</v>
+        <v>-2.464521522927791E-10</v>
       </c>
       <c r="T3">
-        <v>-6.947115403829659E-15</v>
+        <v>-6.078674253347985E-15</v>
       </c>
       <c r="U3">
-        <v>1.28073408690939E-09</v>
+        <v>1.28075595993125E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280765159353034E-09</v>
+        <v>-1.280747977584036E-09</v>
       </c>
       <c r="W3">
-        <v>1.64999999427329E-14</v>
+        <v>8.684029668302934E-15</v>
       </c>
       <c r="X3">
-        <v>-1.280734606295378E-09</v>
+        <v>-1.280757347758379E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280772277236989E-09</v>
+        <v>1.280748846033175E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6585,40 +6585,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034217</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523337</v>
       </c>
       <c r="AJ3">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856038</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965892</v>
       </c>
       <c r="AL3">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571848</v>
       </c>
       <c r="AM3">
-        <v>2.40429888495575E-08</v>
+        <v>2.404322995320294E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502345</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP3">
-        <v>2.218376233036782E-08</v>
+        <v>2.218395073233326E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6662,40 +6662,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859147393572045E-10</v>
+        <v>9.859321081800137E-10</v>
       </c>
       <c r="O4">
-        <v>2.464911603272067E-10</v>
+        <v>2.464789253313118E-10</v>
       </c>
       <c r="P4">
-        <v>2.464620458460369E-10</v>
+        <v>2.464863454909948E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859151735495824E-10</v>
+        <v>-9.859295028283954E-10</v>
       </c>
       <c r="R4">
-        <v>-2.465014880869395E-10</v>
+        <v>-2.464821352150878E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464575332864526E-10</v>
+        <v>-2.464728078263407E-10</v>
       </c>
       <c r="T4">
-        <v>4.137185029558344E-19</v>
+        <v>7.816383994135721E-15</v>
       </c>
       <c r="U4">
-        <v>1.280744848896742E-09</v>
+        <v>1.280754223048969E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280751621695429E-09</v>
+        <v>-1.280756304594798E-09</v>
       </c>
       <c r="W4">
-        <v>9.552470818915106E-15</v>
+        <v>-5.211028577987687E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280749880835266E-09</v>
+        <v>-1.280746585771027E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280752490144568E-09</v>
+        <v>1.280758909926217E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6716,40 +6716,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034221</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523336</v>
       </c>
       <c r="AJ4">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856038</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965892</v>
       </c>
       <c r="AL4">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571848</v>
       </c>
       <c r="AM4">
-        <v>2.404297570527625E-08</v>
+        <v>2.404319803138071E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502345</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP4">
-        <v>2.218376233036782E-08</v>
+        <v>2.218395073233326E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6793,40 +6793,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.079087982421157E-15</v>
+        <v>3.473764563830387E-15</v>
       </c>
       <c r="O5">
-        <v>-3.776048263742492E-15</v>
+        <v>-2.060877011250938E-14</v>
       </c>
       <c r="P5">
-        <v>1.423575191301074E-14</v>
+        <v>-1.440609874549901E-14</v>
       </c>
       <c r="Q5">
-        <v>-3.907985134445813E-15</v>
+        <v>-7.815970267069552E-15</v>
       </c>
       <c r="R5">
-        <v>-1.223499589643031E-14</v>
+        <v>5.249056807713101E-15</v>
       </c>
       <c r="S5">
-        <v>-8.854758237509651E-15</v>
+        <v>1.891865128049796E-14</v>
       </c>
       <c r="T5">
-        <v>2.605323424057147E-15</v>
+        <v>-4.342205701052607E-15</v>
       </c>
       <c r="U5">
-        <v>-7.462746367272616E-15</v>
+        <v>1.449544890789785E-14</v>
       </c>
       <c r="V5">
-        <v>-2.533843292898942E-14</v>
+        <v>1.907229113492519E-15</v>
       </c>
       <c r="W5">
-        <v>5.210646841372462E-15</v>
+        <v>6.079087980234604E-15</v>
       </c>
       <c r="X5">
-        <v>9.374152225097855E-15</v>
+        <v>-9.199628648276743E-15</v>
       </c>
       <c r="Y5">
-        <v>2.169432153449261E-14</v>
+        <v>-1.038787972990368E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6847,40 +6847,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AH5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034217</v>
       </c>
       <c r="AI5">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523337</v>
       </c>
       <c r="AJ5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AK5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034221</v>
       </c>
       <c r="AL5">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523336</v>
       </c>
       <c r="AM5">
-        <v>2.40429888495575E-08</v>
+        <v>2.404322995320294E-08</v>
       </c>
       <c r="AN5">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502345</v>
       </c>
       <c r="AO5">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP5">
-        <v>2.404297570527625E-08</v>
+        <v>2.404319803138071E-08</v>
       </c>
       <c r="AQ5">
-        <v>-100.8933946502344</v>
+        <v>-100.8933946502345</v>
       </c>
       <c r="AR5">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
     </row>
   </sheetData>
@@ -7071,40 +7071,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138962321472716E-09</v>
+        <v>-3.138978289293764E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398934025910226E-09</v>
+        <v>-1.398939581130159E-09</v>
       </c>
       <c r="P2">
-        <v>-1.705287030860854E-10</v>
+        <v>-1.705296392524727E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138964403875671E-09</v>
+        <v>3.138978011776698E-09</v>
       </c>
       <c r="R2">
-        <v>1.398929474445958E-09</v>
+        <v>1.398932868612395E-09</v>
       </c>
       <c r="S2">
-        <v>1.705296575089937E-10</v>
+        <v>1.705377789606579E-10</v>
       </c>
       <c r="T2">
-        <v>1.418412418589804E-09</v>
+        <v>1.418391588453702E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221703295477823E-09</v>
+        <v>-2.221743930940871E-09</v>
       </c>
       <c r="V2">
-        <v>2.93094722831024E-09</v>
+        <v>2.930915605764467E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418401613185507E-09</v>
+        <v>-1.418393029019219E-09</v>
       </c>
       <c r="X2">
-        <v>2.22171075020913E-09</v>
+        <v>2.221745033299851E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930941717734684E-09</v>
+        <v>-2.930907934135416E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7125,25 +7125,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695823</v>
+        <v>0.619474449769582</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443486</v>
+        <v>0.9443347709443496</v>
       </c>
       <c r="AI2">
-        <v>1.05598589769414</v>
+        <v>1.055985897694141</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK2">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605379</v>
       </c>
       <c r="AL2">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM2">
-        <v>-10.90775017850476</v>
+        <v>-10.90775017850469</v>
       </c>
       <c r="AN2">
         <v>-108.7881138042144</v>
@@ -7152,10 +7152,10 @@
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560494</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR2">
         <v>106.7392371175029</v>
@@ -7202,40 +7202,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046319408216689E-09</v>
+        <v>1.04631940821669E-09</v>
       </c>
       <c r="O3">
-        <v>4.663211943875034E-10</v>
+        <v>4.663031959992412E-10</v>
       </c>
       <c r="P3">
-        <v>5.685536282712641E-11</v>
+        <v>5.683713823276966E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046312673662192E-09</v>
+        <v>-1.046324338099667E-09</v>
       </c>
       <c r="R3">
-        <v>-4.66324392368345E-10</v>
+        <v>-4.663071143312487E-10</v>
       </c>
       <c r="S3">
-        <v>-5.685296772868414E-11</v>
+        <v>-5.682899855138112E-11</v>
       </c>
       <c r="T3">
-        <v>-4.728008878809331E-10</v>
+        <v>-4.728008878809317E-10</v>
       </c>
       <c r="U3">
-        <v>7.405596883867076E-10</v>
+        <v>7.405658113716153E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769891083972525E-10</v>
+        <v>-9.769632486608044E-10</v>
       </c>
       <c r="W3">
-        <v>4.728048198036938E-10</v>
+        <v>4.728063205537263E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405621442179057E-10</v>
+        <v>-7.405703846602559E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769898287522187E-10</v>
+        <v>9.769709202594524E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7256,37 +7256,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824225</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659338</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678603</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK3">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605379</v>
       </c>
       <c r="AL3">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463834</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO3">
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560494</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR3">
         <v>106.7392371175029</v>
@@ -7333,40 +7333,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046314755957964E-09</v>
+        <v>1.046333154936538E-09</v>
       </c>
       <c r="O4">
-        <v>4.663212815796114E-10</v>
+        <v>4.66300401786687E-10</v>
       </c>
       <c r="P4">
-        <v>5.685727161264932E-11</v>
+        <v>5.684815931547127E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046319547022116E-09</v>
+        <v>-1.04633232201019E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663201574534595E-10</v>
+        <v>-4.663028794163632E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685966670439239E-11</v>
+        <v>-5.684625052659904E-11</v>
       </c>
       <c r="T4">
-        <v>-4.72794014521009E-10</v>
+        <v>-4.727915833634819E-10</v>
       </c>
       <c r="U4">
-        <v>7.405738338336948E-10</v>
+        <v>7.405714869888319E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769780873145512E-10</v>
+        <v>-9.769651574463273E-10</v>
       </c>
       <c r="W4">
-        <v>4.72800167544969E-10</v>
+        <v>4.72795905485677E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405635849202366E-10</v>
+        <v>-7.405718253625871E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769773669671859E-10</v>
+        <v>9.769761785328293E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7387,37 +7387,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824225</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659339</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678604</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK4">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605379</v>
       </c>
       <c r="AL4">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463835</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO4">
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560494</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR4">
         <v>106.7392371175029</v>
@@ -7464,40 +7464,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.897605780357463E-15</v>
+        <v>-8.730518730008711E-15</v>
       </c>
       <c r="O5">
-        <v>3.831143248676865E-15</v>
+        <v>-2.161053496694443E-15</v>
       </c>
       <c r="P5">
-        <v>6.717202085990638E-15</v>
+        <v>-4.790190185203334E-15</v>
       </c>
       <c r="Q5">
-        <v>2.577509971520052E-15</v>
+        <v>7.680015832849284E-15</v>
       </c>
       <c r="R5">
-        <v>-4.911669997024083E-15</v>
+        <v>1.080526748347222E-15</v>
       </c>
       <c r="S5">
-        <v>-4.8630956965765E-16</v>
+        <v>9.580380370406668E-15</v>
       </c>
       <c r="T5">
-        <v>2.213567578405286E-15</v>
+        <v>-6.535674571794155E-15</v>
       </c>
       <c r="U5">
-        <v>-9.572154546207096E-15</v>
+        <v>-6.352372328153712E-15</v>
       </c>
       <c r="V5">
-        <v>-1.365021939004516E-14</v>
+        <v>-1.440702331129661E-15</v>
       </c>
       <c r="W5">
-        <v>1.744597021868798E-15</v>
+        <v>1.271494037113825E-14</v>
       </c>
       <c r="X5">
-        <v>6.395968382130242E-15</v>
+        <v>3.176186164076857E-15</v>
       </c>
       <c r="Y5">
-        <v>1.030073153597149E-14</v>
+        <v>2.881404662259323E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -7518,37 +7518,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824225</v>
       </c>
       <c r="AH5">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659338</v>
       </c>
       <c r="AI5">
-        <v>1.055985897678603</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AJ5">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824225</v>
       </c>
       <c r="AK5">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659339</v>
       </c>
       <c r="AL5">
-        <v>1.055985897678604</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AM5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463834</v>
       </c>
       <c r="AN5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO5">
         <v>106.7392371177116</v>
       </c>
       <c r="AP5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463835</v>
       </c>
       <c r="AQ5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AR5">
         <v>106.7392371177116</v>
@@ -8020,40 +8020,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138962321472716E-09</v>
+        <v>-3.138978289293764E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398934025910226E-09</v>
+        <v>-1.398939581130159E-09</v>
       </c>
       <c r="P2">
-        <v>-1.705287030860854E-10</v>
+        <v>-1.705296392524727E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138964403875671E-09</v>
+        <v>3.138978011776698E-09</v>
       </c>
       <c r="R2">
-        <v>1.398929474445958E-09</v>
+        <v>1.398932868612395E-09</v>
       </c>
       <c r="S2">
-        <v>1.705296575089937E-10</v>
+        <v>1.705377789606579E-10</v>
       </c>
       <c r="T2">
-        <v>1.418412418589804E-09</v>
+        <v>1.418391588453702E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221703295477823E-09</v>
+        <v>-2.221743930940871E-09</v>
       </c>
       <c r="V2">
-        <v>2.93094722831024E-09</v>
+        <v>2.930915605764467E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418401613185507E-09</v>
+        <v>-1.418393029019219E-09</v>
       </c>
       <c r="X2">
-        <v>2.22171075020913E-09</v>
+        <v>2.221745033299851E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930941717734684E-09</v>
+        <v>-2.930907934135416E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695823</v>
+        <v>0.619474449769582</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443486</v>
+        <v>0.9443347709443496</v>
       </c>
       <c r="AI2">
-        <v>1.05598589769414</v>
+        <v>1.055985897694141</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK2">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605379</v>
       </c>
       <c r="AL2">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM2">
-        <v>-10.90775017850476</v>
+        <v>-10.90775017850469</v>
       </c>
       <c r="AN2">
         <v>-108.7881138042144</v>
@@ -8101,10 +8101,10 @@
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560494</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR2">
         <v>106.7392371175029</v>
@@ -8151,40 +8151,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046319408216689E-09</v>
+        <v>1.04631940821669E-09</v>
       </c>
       <c r="O3">
-        <v>4.663211943875034E-10</v>
+        <v>4.663031959992412E-10</v>
       </c>
       <c r="P3">
-        <v>5.685536282712641E-11</v>
+        <v>5.683713823276966E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046312673662192E-09</v>
+        <v>-1.046324338099667E-09</v>
       </c>
       <c r="R3">
-        <v>-4.66324392368345E-10</v>
+        <v>-4.663071143312487E-10</v>
       </c>
       <c r="S3">
-        <v>-5.685296772868414E-11</v>
+        <v>-5.682899855138112E-11</v>
       </c>
       <c r="T3">
-        <v>-4.728008878809331E-10</v>
+        <v>-4.728008878809317E-10</v>
       </c>
       <c r="U3">
-        <v>7.405596883867076E-10</v>
+        <v>7.405658113716153E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769891083972525E-10</v>
+        <v>-9.769632486608044E-10</v>
       </c>
       <c r="W3">
-        <v>4.728048198036938E-10</v>
+        <v>4.728063205537263E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405621442179057E-10</v>
+        <v>-7.405703846602559E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769898287522187E-10</v>
+        <v>9.769709202594524E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8205,37 +8205,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824225</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659338</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678603</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK3">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605379</v>
       </c>
       <c r="AL3">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463834</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO3">
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560494</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR3">
         <v>106.7392371175029</v>
@@ -8282,40 +8282,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046314755957964E-09</v>
+        <v>1.046333154936538E-09</v>
       </c>
       <c r="O4">
-        <v>4.663212815796114E-10</v>
+        <v>4.66300401786687E-10</v>
       </c>
       <c r="P4">
-        <v>5.685727161264932E-11</v>
+        <v>5.684815931547127E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046319547022116E-09</v>
+        <v>-1.04633232201019E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663201574534595E-10</v>
+        <v>-4.663028794163632E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685966670439239E-11</v>
+        <v>-5.684625052659904E-11</v>
       </c>
       <c r="T4">
-        <v>-4.72794014521009E-10</v>
+        <v>-4.727915833634819E-10</v>
       </c>
       <c r="U4">
-        <v>7.405738338336948E-10</v>
+        <v>7.405714869888319E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769780873145512E-10</v>
+        <v>-9.769651574463273E-10</v>
       </c>
       <c r="W4">
-        <v>4.72800167544969E-10</v>
+        <v>4.72795905485677E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405635849202366E-10</v>
+        <v>-7.405718253625871E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769773669671859E-10</v>
+        <v>9.769761785328293E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8336,37 +8336,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824225</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659339</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678604</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK4">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605379</v>
       </c>
       <c r="AL4">
-        <v>1.055985897682488</v>
+        <v>1.055985897682489</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463835</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO4">
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560494</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR4">
         <v>106.7392371175029</v>
@@ -8413,40 +8413,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.897605780357463E-15</v>
+        <v>-8.730518730008711E-15</v>
       </c>
       <c r="O5">
-        <v>3.831143248676865E-15</v>
+        <v>-2.161053496694443E-15</v>
       </c>
       <c r="P5">
-        <v>6.717202085990638E-15</v>
+        <v>-4.790190185203334E-15</v>
       </c>
       <c r="Q5">
-        <v>2.577509971520052E-15</v>
+        <v>7.680015832849284E-15</v>
       </c>
       <c r="R5">
-        <v>-4.911669997024083E-15</v>
+        <v>1.080526748347222E-15</v>
       </c>
       <c r="S5">
-        <v>-4.8630956965765E-16</v>
+        <v>9.580380370406668E-15</v>
       </c>
       <c r="T5">
-        <v>2.213567578405286E-15</v>
+        <v>-6.535674571794155E-15</v>
       </c>
       <c r="U5">
-        <v>-9.572154546207096E-15</v>
+        <v>-6.352372328153712E-15</v>
       </c>
       <c r="V5">
-        <v>-1.365021939004516E-14</v>
+        <v>-1.440702331129661E-15</v>
       </c>
       <c r="W5">
-        <v>1.744597021868798E-15</v>
+        <v>1.271494037113825E-14</v>
       </c>
       <c r="X5">
-        <v>6.395968382130242E-15</v>
+        <v>3.176186164076857E-15</v>
       </c>
       <c r="Y5">
-        <v>1.030073153597149E-14</v>
+        <v>2.881404662259323E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -8467,37 +8467,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824225</v>
       </c>
       <c r="AH5">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659338</v>
       </c>
       <c r="AI5">
-        <v>1.055985897678603</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AJ5">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824225</v>
       </c>
       <c r="AK5">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659339</v>
       </c>
       <c r="AL5">
-        <v>1.055985897678604</v>
+        <v>1.055985897678605</v>
       </c>
       <c r="AM5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463834</v>
       </c>
       <c r="AN5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO5">
         <v>106.7392371177116</v>
       </c>
       <c r="AP5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463835</v>
       </c>
       <c r="AQ5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AR5">
         <v>106.7392371177116</v>
@@ -8691,40 +8691,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.44445293634582E-09</v>
+        <v>-2.444453725837753E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111365650844516E-10</v>
+        <v>-6.111149117568001E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111502536565793E-10</v>
+        <v>-6.111330548830599E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444453331494474E-09</v>
+        <v>2.444457278954124E-09</v>
       </c>
       <c r="R2">
-        <v>6.111345140249259E-10</v>
+        <v>6.111182246859426E-10</v>
       </c>
       <c r="S2">
-        <v>6.111510432491819E-10</v>
+        <v>6.111317933154628E-10</v>
       </c>
       <c r="T2">
-        <v>-3.947813839275226E-15</v>
+        <v>-2.763575944241086E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175426108724518E-09</v>
+        <v>-3.175446229377584E-09</v>
       </c>
       <c r="V2">
-        <v>3.175430919132327E-09</v>
+        <v>3.175429974779643E-09</v>
       </c>
       <c r="W2">
-        <v>3.948051807122423E-15</v>
+        <v>1.184830056288637E-15</v>
       </c>
       <c r="X2">
-        <v>3.175426503529974E-09</v>
+        <v>3.175441337624749E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175435021393232E-09</v>
+        <v>-3.175434471786514E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8745,25 +8745,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308631</v>
+        <v>0.3333333333308637</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085273</v>
+        <v>0.8819171037085282</v>
       </c>
       <c r="AI2">
-        <v>0.8819171036611007</v>
+        <v>0.8819171036611004</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL2">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM2">
-        <v>8.302040373102128E-09</v>
+        <v>8.301988248865677E-09</v>
       </c>
       <c r="AN2">
         <v>-100.8933946487908</v>
@@ -8772,10 +8772,10 @@
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387977531659781E-08</v>
+        <v>1.387974772508273E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR2">
         <v>100.8933946513357</v>
@@ -8822,40 +8822,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.1481922461144E-10</v>
+        <v>8.148152771517972E-10</v>
       </c>
       <c r="O3">
-        <v>2.037213915513164E-10</v>
+        <v>2.03707548118495E-10</v>
       </c>
       <c r="P3">
-        <v>2.037144910910397E-10</v>
+        <v>2.037113331233239E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148188298207312E-10</v>
+        <v>-8.148148823610892E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037254938605289E-10</v>
+        <v>-2.037039179632528E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037170144163939E-10</v>
+        <v>-2.037166971008058E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105203528794185E-15</v>
+        <v>-5.920965637171955E-15</v>
       </c>
       <c r="U3">
-        <v>1.058467926110928E-09</v>
+        <v>1.058484416619936E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058487334590524E-09</v>
+        <v>-1.058470925308935E-09</v>
       </c>
       <c r="W3">
-        <v>5.526246113174209E-15</v>
+        <v>4.342008221403056E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058467136612389E-09</v>
+        <v>-1.058476606718495E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058478340464411E-09</v>
+        <v>1.058465638757254E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8876,37 +8876,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3333333334040794</v>
+        <v>0.33333333340408</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366896</v>
       </c>
       <c r="AI3">
         <v>0.8819171036467759</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL3">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM3">
-        <v>1.573911363566797E-08</v>
+        <v>1.573908000719062E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO3">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP3">
-        <v>1.387977531659781E-08</v>
+        <v>1.387974772508273E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR3">
         <v>100.8933946513357</v>
@@ -8953,40 +8953,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.14816066643724E-10</v>
+        <v>8.148215930872268E-10</v>
       </c>
       <c r="O4">
-        <v>2.037206020593878E-10</v>
+        <v>2.037080202948361E-10</v>
       </c>
       <c r="P4">
-        <v>2.037226957318347E-10</v>
+        <v>2.037162249356499E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148156718530157E-10</v>
+        <v>-8.148180403288029E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037190230643448E-10</v>
+        <v>-2.037108609357783E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037247468808476E-10</v>
+        <v>-2.037166971008058E-10</v>
       </c>
       <c r="T4">
-        <v>-5.526219672246738E-15</v>
+        <v>-1.184014062962024E-15</v>
       </c>
       <c r="U4">
-        <v>1.05846382379053E-09</v>
+        <v>1.058475817233176E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058485755606667E-09</v>
+        <v>-1.058474238137403E-09</v>
       </c>
       <c r="W4">
-        <v>3.947262256446138E-15</v>
+        <v>-3.949433518412091E-16</v>
       </c>
       <c r="X4">
-        <v>-1.058455619143124E-09</v>
+        <v>-1.058479524801E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058485360867312E-09</v>
+        <v>1.058465638757254E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9007,37 +9007,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040802</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366891</v>
+        <v>0.8819171037366897</v>
       </c>
       <c r="AI4">
-        <v>0.881917103646776</v>
+        <v>0.8819171036467758</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL4">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM4">
-        <v>1.57391020435984E-08</v>
+        <v>1.573906141397105E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO4">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP4">
-        <v>1.387977531659781E-08</v>
+        <v>1.387974772508273E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR4">
         <v>100.8933946513357</v>
@@ -9084,40 +9084,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.73695157252249E-15</v>
+        <v>-4.736951572522499E-15</v>
       </c>
       <c r="O5">
-        <v>4.419635985279626E-15</v>
+        <v>-1.497756440785181E-15</v>
       </c>
       <c r="P5">
-        <v>-1.261668269903133E-15</v>
+        <v>2.840652127483065E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.947459642865103E-15</v>
+        <v>4.736951572522502E-15</v>
       </c>
       <c r="R5">
-        <v>-5.878677237597186E-15</v>
+        <v>5.522646461669878E-15</v>
       </c>
       <c r="S5">
-        <v>7.894919287899682E-16</v>
+        <v>-4.891812326176163E-15</v>
       </c>
       <c r="T5">
-        <v>7.894919300911316E-16</v>
+        <v>-7.894919300911302E-16</v>
       </c>
       <c r="U5">
-        <v>1.191221522906489E-14</v>
+        <v>8.79675974223231E-15</v>
       </c>
       <c r="V5">
-        <v>-4.497066361781183E-15</v>
+        <v>-3.707574432991217E-15</v>
       </c>
       <c r="W5">
-        <v>-3.947459645033831E-15</v>
+        <v>7.894919300911291E-16</v>
       </c>
       <c r="X5">
-        <v>-8.440728966304991E-15</v>
+        <v>1.064295287922613E-15</v>
       </c>
       <c r="Y5">
-        <v>-4.102320397386199E-15</v>
+        <v>3.312828468596235E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9138,40 +9138,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3333333334040794</v>
+        <v>0.33333333340408</v>
       </c>
       <c r="AH5">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366896</v>
       </c>
       <c r="AI5">
         <v>0.8819171036467759</v>
       </c>
       <c r="AJ5">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040802</v>
       </c>
       <c r="AK5">
-        <v>0.8819171037366891</v>
+        <v>0.8819171037366897</v>
       </c>
       <c r="AL5">
-        <v>0.881917103646776</v>
+        <v>0.8819171036467758</v>
       </c>
       <c r="AM5">
-        <v>1.573911363566797E-08</v>
+        <v>1.573908000719062E-08</v>
       </c>
       <c r="AN5">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO5">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP5">
-        <v>1.57391020435984E-08</v>
+        <v>1.573906141397105E-08</v>
       </c>
       <c r="AQ5">
         <v>-100.8933946508607</v>
       </c>
       <c r="AR5">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
     </row>
   </sheetData>
@@ -9362,40 +9362,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.44445293634582E-09</v>
+        <v>-2.444453725837753E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111365650844516E-10</v>
+        <v>-6.111149117568001E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111502536565793E-10</v>
+        <v>-6.111330548830599E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444453331494474E-09</v>
+        <v>2.444457278954124E-09</v>
       </c>
       <c r="R2">
-        <v>6.111345140249259E-10</v>
+        <v>6.111182246859426E-10</v>
       </c>
       <c r="S2">
-        <v>6.111510432491819E-10</v>
+        <v>6.111317933154628E-10</v>
       </c>
       <c r="T2">
-        <v>-3.947813839275226E-15</v>
+        <v>-2.763575944241086E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175426108724518E-09</v>
+        <v>-3.175446229377584E-09</v>
       </c>
       <c r="V2">
-        <v>3.175430919132327E-09</v>
+        <v>3.175429974779643E-09</v>
       </c>
       <c r="W2">
-        <v>3.948051807122423E-15</v>
+        <v>1.184830056288637E-15</v>
       </c>
       <c r="X2">
-        <v>3.175426503529974E-09</v>
+        <v>3.175441337624749E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175435021393232E-09</v>
+        <v>-3.175434471786514E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9416,25 +9416,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308631</v>
+        <v>0.3333333333308637</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085273</v>
+        <v>0.8819171037085282</v>
       </c>
       <c r="AI2">
-        <v>0.8819171036611007</v>
+        <v>0.8819171036611004</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL2">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM2">
-        <v>8.302040373102128E-09</v>
+        <v>8.301988248865677E-09</v>
       </c>
       <c r="AN2">
         <v>-100.8933946487908</v>
@@ -9443,10 +9443,10 @@
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387977531659781E-08</v>
+        <v>1.387974772508273E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR2">
         <v>100.8933946513357</v>
@@ -9493,40 +9493,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.1481922461144E-10</v>
+        <v>8.148152771517972E-10</v>
       </c>
       <c r="O3">
-        <v>2.037213915513164E-10</v>
+        <v>2.03707548118495E-10</v>
       </c>
       <c r="P3">
-        <v>2.037144910910397E-10</v>
+        <v>2.037113331233239E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148188298207312E-10</v>
+        <v>-8.148148823610892E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037254938605289E-10</v>
+        <v>-2.037039179632528E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037170144163939E-10</v>
+        <v>-2.037166971008058E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105203528794185E-15</v>
+        <v>-5.920965637171955E-15</v>
       </c>
       <c r="U3">
-        <v>1.058467926110928E-09</v>
+        <v>1.058484416619936E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058487334590524E-09</v>
+        <v>-1.058470925308935E-09</v>
       </c>
       <c r="W3">
-        <v>5.526246113174209E-15</v>
+        <v>4.342008221403056E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058467136612389E-09</v>
+        <v>-1.058476606718495E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058478340464411E-09</v>
+        <v>1.058465638757254E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9547,37 +9547,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3333333334040794</v>
+        <v>0.33333333340408</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366896</v>
       </c>
       <c r="AI3">
         <v>0.8819171036467759</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL3">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM3">
-        <v>1.573911363566797E-08</v>
+        <v>1.573908000719062E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO3">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP3">
-        <v>1.387977531659781E-08</v>
+        <v>1.387974772508273E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR3">
         <v>100.8933946513357</v>
@@ -9624,40 +9624,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.14816066643724E-10</v>
+        <v>8.148215930872268E-10</v>
       </c>
       <c r="O4">
-        <v>2.037206020593878E-10</v>
+        <v>2.037080202948361E-10</v>
       </c>
       <c r="P4">
-        <v>2.037226957318347E-10</v>
+        <v>2.037162249356499E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148156718530157E-10</v>
+        <v>-8.148180403288029E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037190230643448E-10</v>
+        <v>-2.037108609357783E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037247468808476E-10</v>
+        <v>-2.037166971008058E-10</v>
       </c>
       <c r="T4">
-        <v>-5.526219672246738E-15</v>
+        <v>-1.184014062962024E-15</v>
       </c>
       <c r="U4">
-        <v>1.05846382379053E-09</v>
+        <v>1.058475817233176E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058485755606667E-09</v>
+        <v>-1.058474238137403E-09</v>
       </c>
       <c r="W4">
-        <v>3.947262256446138E-15</v>
+        <v>-3.949433518412091E-16</v>
       </c>
       <c r="X4">
-        <v>-1.058455619143124E-09</v>
+        <v>-1.058479524801E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058485360867312E-09</v>
+        <v>1.058465638757254E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9678,37 +9678,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040802</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366891</v>
+        <v>0.8819171037366897</v>
       </c>
       <c r="AI4">
-        <v>0.881917103646776</v>
+        <v>0.8819171036467758</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL4">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM4">
-        <v>1.57391020435984E-08</v>
+        <v>1.573906141397105E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO4">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP4">
-        <v>1.387977531659781E-08</v>
+        <v>1.387974772508273E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR4">
         <v>100.8933946513357</v>
@@ -9755,40 +9755,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.73695157252249E-15</v>
+        <v>-4.736951572522499E-15</v>
       </c>
       <c r="O5">
-        <v>4.419635985279626E-15</v>
+        <v>-1.497756440785181E-15</v>
       </c>
       <c r="P5">
-        <v>-1.261668269903133E-15</v>
+        <v>2.840652127483065E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.947459642865103E-15</v>
+        <v>4.736951572522502E-15</v>
       </c>
       <c r="R5">
-        <v>-5.878677237597186E-15</v>
+        <v>5.522646461669878E-15</v>
       </c>
       <c r="S5">
-        <v>7.894919287899682E-16</v>
+        <v>-4.891812326176163E-15</v>
       </c>
       <c r="T5">
-        <v>7.894919300911316E-16</v>
+        <v>-7.894919300911302E-16</v>
       </c>
       <c r="U5">
-        <v>1.191221522906489E-14</v>
+        <v>8.79675974223231E-15</v>
       </c>
       <c r="V5">
-        <v>-4.497066361781183E-15</v>
+        <v>-3.707574432991217E-15</v>
       </c>
       <c r="W5">
-        <v>-3.947459645033831E-15</v>
+        <v>7.894919300911291E-16</v>
       </c>
       <c r="X5">
-        <v>-8.440728966304991E-15</v>
+        <v>1.064295287922613E-15</v>
       </c>
       <c r="Y5">
-        <v>-4.102320397386199E-15</v>
+        <v>3.312828468596235E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9809,40 +9809,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3333333334040794</v>
+        <v>0.33333333340408</v>
       </c>
       <c r="AH5">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366896</v>
       </c>
       <c r="AI5">
         <v>0.8819171036467759</v>
       </c>
       <c r="AJ5">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040802</v>
       </c>
       <c r="AK5">
-        <v>0.8819171037366891</v>
+        <v>0.8819171037366897</v>
       </c>
       <c r="AL5">
-        <v>0.881917103646776</v>
+        <v>0.8819171036467758</v>
       </c>
       <c r="AM5">
-        <v>1.573911363566797E-08</v>
+        <v>1.573908000719062E-08</v>
       </c>
       <c r="AN5">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO5">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP5">
-        <v>1.57391020435984E-08</v>
+        <v>1.573906141397105E-08</v>
       </c>
       <c r="AQ5">
         <v>-100.8933946508607</v>
       </c>
       <c r="AR5">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
     </row>
   </sheetData>
@@ -10033,40 +10033,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624760452852779E-09</v>
+        <v>-2.62477072407845E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140212193664637E-09</v>
+        <v>-1.140208530919228E-09</v>
       </c>
       <c r="P2">
-        <v>-1.722050157653741E-10</v>
+        <v>-1.721950684314703E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624767270090519E-09</v>
+        <v>2.624770844624118E-09</v>
       </c>
       <c r="R2">
-        <v>1.140212213122575E-09</v>
+        <v>1.140208678935482E-09</v>
       </c>
       <c r="S2">
-        <v>1.722062771569795E-10</v>
+        <v>1.721927213942664E-10</v>
       </c>
       <c r="T2">
-        <v>1.117777381665394E-09</v>
+        <v>1.117778361073912E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947064218837684E-09</v>
+        <v>-1.947085714994826E-09</v>
       </c>
       <c r="V2">
-        <v>2.505965207059475E-09</v>
+        <v>2.505963386741952E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117779335934432E-09</v>
+        <v>-1.117777730281503E-09</v>
       </c>
       <c r="X2">
-        <v>1.947061007300574E-09</v>
+        <v>1.947087803514793E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505969550025911E-09</v>
+        <v>-2.505959359049198E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10087,25 +10087,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499194</v>
+        <v>0.5421614591499196</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155462</v>
+        <v>0.8576025463155467</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659619</v>
+        <v>0.9547184906659623</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770481</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355486</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556978</v>
+        <v>0.954718490655698</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403304</v>
+        <v>-10.80277169403302</v>
       </c>
       <c r="AN2">
         <v>-108.0887396155923</v>
@@ -10114,10 +10114,10 @@
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013757</v>
       </c>
       <c r="AQ2">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
         <v>106.1949204570494</v>
@@ -10164,40 +10164,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749221507813443E-10</v>
+        <v>8.749231736571847E-10</v>
       </c>
       <c r="O3">
-        <v>3.800779095676996E-10</v>
+        <v>3.800644132207513E-10</v>
       </c>
       <c r="P3">
-        <v>5.741179486923634E-11</v>
+        <v>5.739823910652398E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749256651227373E-10</v>
+        <v>-8.749182486133967E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800746979942007E-10</v>
+        <v>-3.800687187519799E-10</v>
       </c>
       <c r="S3">
-        <v>-5.741396636200998E-11</v>
+        <v>-5.739950044053603E-11</v>
       </c>
       <c r="T3">
-        <v>-3.726002498971614E-10</v>
+        <v>-3.725948892031341E-10</v>
       </c>
       <c r="U3">
-        <v>6.490204861628179E-10</v>
+        <v>6.490216892842777E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353282143224104E-10</v>
+        <v>-8.353180233456983E-10</v>
       </c>
       <c r="W3">
-        <v>3.725989595927897E-10</v>
+        <v>3.725932958401896E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490204667533108E-10</v>
+        <v>-6.490266934091113E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353275836559278E-10</v>
+        <v>8.353223663461674E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10218,37 +10218,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860908</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422158</v>
       </c>
       <c r="AI3">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770481</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355486</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556978</v>
+        <v>0.954718490655698</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883905</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013757</v>
       </c>
       <c r="AQ3">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
         <v>106.1949204570494</v>
@@ -10295,40 +10295,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.749226321346807E-10</v>
+        <v>8.749234143338531E-10</v>
       </c>
       <c r="O4">
-        <v>3.80073082513038E-10</v>
+        <v>3.800702056863453E-10</v>
       </c>
       <c r="P4">
-        <v>5.740962337070341E-11</v>
+        <v>5.740041060505683E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749206197636525E-10</v>
+        <v>-8.749285800082346E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800715058325648E-10</v>
+        <v>-3.800681268943022E-10</v>
       </c>
       <c r="S4">
-        <v>-5.74128806127435E-11</v>
+        <v>-5.740058618980248E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725977272176191E-10</v>
+        <v>-3.725936278633629E-10</v>
       </c>
       <c r="U4">
-        <v>6.490220628375319E-10</v>
+        <v>6.490197972746209E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353288449922959E-10</v>
+        <v>-8.353173926758126E-10</v>
       </c>
       <c r="W4">
-        <v>3.725979968861167E-10</v>
+        <v>3.725939599137644E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490172357794672E-10</v>
+        <v>-6.490183394517671E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353278989908707E-10</v>
+        <v>8.353220510112246E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10349,37 +10349,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860906</v>
+        <v>0.542161459186091</v>
       </c>
       <c r="AH4">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422157</v>
       </c>
       <c r="AI4">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770481</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355486</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556978</v>
+        <v>0.954718490655698</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883906</v>
       </c>
       <c r="AN4">
         <v>-108.0887396165826</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013757</v>
       </c>
       <c r="AQ4">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
         <v>106.1949204570494</v>
@@ -10426,40 +10426,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.883694544832968E-15</v>
+        <v>4.813533364708114E-16</v>
       </c>
       <c r="O5">
-        <v>5.43831844339532E-15</v>
+        <v>-5.477130651208122E-15</v>
       </c>
       <c r="P5">
-        <v>3.432838304148088E-15</v>
+        <v>2.347089037694028E-15</v>
       </c>
       <c r="Q5">
-        <v>-5.887727423783641E-15</v>
+        <v>3.572320860515839E-15</v>
       </c>
       <c r="R5">
-        <v>-2.226750703576285E-15</v>
+        <v>1.969634072485499E-15</v>
       </c>
       <c r="S5">
-        <v>-7.320755989130251E-15</v>
+        <v>-3.432838304148086E-15</v>
       </c>
       <c r="T5">
-        <v>1.410656320389085E-15</v>
+        <v>2.522679542479862E-15</v>
       </c>
       <c r="U5">
-        <v>3.565714890441818E-15</v>
+        <v>2.857420589196257E-15</v>
       </c>
       <c r="V5">
-        <v>-3.712327180196247E-15</v>
+        <v>-4.027662123006242E-15</v>
       </c>
       <c r="W5">
-        <v>-3.451982526398135E-15</v>
+        <v>-5.25705753816368E-15</v>
       </c>
       <c r="X5">
-        <v>-3.546308786535419E-15</v>
+        <v>-7.053805365258044E-15</v>
       </c>
       <c r="Y5">
-        <v>4.937820884674385E-15</v>
+        <v>3.712327180196249E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -10480,40 +10480,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860908</v>
       </c>
       <c r="AH5">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422158</v>
       </c>
       <c r="AI5">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ5">
-        <v>0.5421614591860906</v>
+        <v>0.542161459186091</v>
       </c>
       <c r="AK5">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422157</v>
       </c>
       <c r="AL5">
         <v>0.9547184906522768</v>
       </c>
       <c r="AM5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883905</v>
       </c>
       <c r="AN5">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883906</v>
       </c>
       <c r="AQ5">
         <v>-108.0887396165826</v>
       </c>
       <c r="AR5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
     </row>
   </sheetData>
@@ -10704,40 +10704,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624760452852779E-09</v>
+        <v>-2.62477072407845E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140212193664637E-09</v>
+        <v>-1.140208530919228E-09</v>
       </c>
       <c r="P2">
-        <v>-1.722050157653741E-10</v>
+        <v>-1.721950684314703E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624767270090519E-09</v>
+        <v>2.624770844624118E-09</v>
       </c>
       <c r="R2">
-        <v>1.140212213122575E-09</v>
+        <v>1.140208678935482E-09</v>
       </c>
       <c r="S2">
-        <v>1.722062771569795E-10</v>
+        <v>1.721927213942664E-10</v>
       </c>
       <c r="T2">
-        <v>1.117777381665394E-09</v>
+        <v>1.117778361073912E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947064218837684E-09</v>
+        <v>-1.947085714994826E-09</v>
       </c>
       <c r="V2">
-        <v>2.505965207059475E-09</v>
+        <v>2.505963386741952E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117779335934432E-09</v>
+        <v>-1.117777730281503E-09</v>
       </c>
       <c r="X2">
-        <v>1.947061007300574E-09</v>
+        <v>1.947087803514793E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505969550025911E-09</v>
+        <v>-2.505959359049198E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10758,25 +10758,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499194</v>
+        <v>0.5421614591499196</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155462</v>
+        <v>0.8576025463155467</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659619</v>
+        <v>0.9547184906659623</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770481</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355486</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556978</v>
+        <v>0.954718490655698</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403304</v>
+        <v>-10.80277169403302</v>
       </c>
       <c r="AN2">
         <v>-108.0887396155923</v>
@@ -10785,10 +10785,10 @@
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013757</v>
       </c>
       <c r="AQ2">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
         <v>106.1949204570494</v>
@@ -10835,40 +10835,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749221507813443E-10</v>
+        <v>8.749231736571847E-10</v>
       </c>
       <c r="O3">
-        <v>3.800779095676996E-10</v>
+        <v>3.800644132207513E-10</v>
       </c>
       <c r="P3">
-        <v>5.741179486923634E-11</v>
+        <v>5.739823910652398E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749256651227373E-10</v>
+        <v>-8.749182486133967E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800746979942007E-10</v>
+        <v>-3.800687187519799E-10</v>
       </c>
       <c r="S3">
-        <v>-5.741396636200998E-11</v>
+        <v>-5.739950044053603E-11</v>
       </c>
       <c r="T3">
-        <v>-3.726002498971614E-10</v>
+        <v>-3.725948892031341E-10</v>
       </c>
       <c r="U3">
-        <v>6.490204861628179E-10</v>
+        <v>6.490216892842777E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353282143224104E-10</v>
+        <v>-8.353180233456983E-10</v>
       </c>
       <c r="W3">
-        <v>3.725989595927897E-10</v>
+        <v>3.725932958401896E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490204667533108E-10</v>
+        <v>-6.490266934091113E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353275836559278E-10</v>
+        <v>8.353223663461674E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10889,37 +10889,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860908</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422158</v>
       </c>
       <c r="AI3">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770481</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355486</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556978</v>
+        <v>0.954718490655698</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883905</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013757</v>
       </c>
       <c r="AQ3">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
         <v>106.1949204570494</v>
@@ -10966,40 +10966,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.749226321346807E-10</v>
+        <v>8.749234143338531E-10</v>
       </c>
       <c r="O4">
-        <v>3.80073082513038E-10</v>
+        <v>3.800702056863453E-10</v>
       </c>
       <c r="P4">
-        <v>5.740962337070341E-11</v>
+        <v>5.740041060505683E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749206197636525E-10</v>
+        <v>-8.749285800082346E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800715058325648E-10</v>
+        <v>-3.800681268943022E-10</v>
       </c>
       <c r="S4">
-        <v>-5.74128806127435E-11</v>
+        <v>-5.740058618980248E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725977272176191E-10</v>
+        <v>-3.725936278633629E-10</v>
       </c>
       <c r="U4">
-        <v>6.490220628375319E-10</v>
+        <v>6.490197972746209E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353288449922959E-10</v>
+        <v>-8.353173926758126E-10</v>
       </c>
       <c r="W4">
-        <v>3.725979968861167E-10</v>
+        <v>3.725939599137644E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490172357794672E-10</v>
+        <v>-6.490183394517671E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353278989908707E-10</v>
+        <v>8.353220510112246E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11020,37 +11020,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860906</v>
+        <v>0.542161459186091</v>
       </c>
       <c r="AH4">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422157</v>
       </c>
       <c r="AI4">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770481</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355486</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556978</v>
+        <v>0.954718490655698</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883906</v>
       </c>
       <c r="AN4">
         <v>-108.0887396165826</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013757</v>
       </c>
       <c r="AQ4">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
         <v>106.1949204570494</v>
@@ -11097,40 +11097,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.883694544832968E-15</v>
+        <v>4.813533364708114E-16</v>
       </c>
       <c r="O5">
-        <v>5.43831844339532E-15</v>
+        <v>-5.477130651208122E-15</v>
       </c>
       <c r="P5">
-        <v>3.432838304148088E-15</v>
+        <v>2.347089037694028E-15</v>
       </c>
       <c r="Q5">
-        <v>-5.887727423783641E-15</v>
+        <v>3.572320860515839E-15</v>
       </c>
       <c r="R5">
-        <v>-2.226750703576285E-15</v>
+        <v>1.969634072485499E-15</v>
       </c>
       <c r="S5">
-        <v>-7.320755989130251E-15</v>
+        <v>-3.432838304148086E-15</v>
       </c>
       <c r="T5">
-        <v>1.410656320389085E-15</v>
+        <v>2.522679542479862E-15</v>
       </c>
       <c r="U5">
-        <v>3.565714890441818E-15</v>
+        <v>2.857420589196257E-15</v>
       </c>
       <c r="V5">
-        <v>-3.712327180196247E-15</v>
+        <v>-4.027662123006242E-15</v>
       </c>
       <c r="W5">
-        <v>-3.451982526398135E-15</v>
+        <v>-5.25705753816368E-15</v>
       </c>
       <c r="X5">
-        <v>-3.546308786535419E-15</v>
+        <v>-7.053805365258044E-15</v>
       </c>
       <c r="Y5">
-        <v>4.937820884674385E-15</v>
+        <v>3.712327180196249E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11151,40 +11151,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860908</v>
       </c>
       <c r="AH5">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422158</v>
       </c>
       <c r="AI5">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ5">
-        <v>0.5421614591860906</v>
+        <v>0.542161459186091</v>
       </c>
       <c r="AK5">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422157</v>
       </c>
       <c r="AL5">
         <v>0.9547184906522768</v>
       </c>
       <c r="AM5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883905</v>
       </c>
       <c r="AN5">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883906</v>
       </c>
       <c r="AQ5">
         <v>-108.0887396165826</v>
       </c>
       <c r="AR5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
     </row>
   </sheetData>
@@ -11375,40 +11375,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957736835525453E-09</v>
+        <v>-2.957750730583695E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394324716518613E-10</v>
+        <v>-7.39432471651857E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394463673583617E-10</v>
+        <v>-7.39449841122942E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957733361824335E-09</v>
+        <v>2.957740309353455E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073656E-10</v>
+        <v>7.394411565073685E-10</v>
       </c>
       <c r="S2">
-        <v>7.394498415670326E-10</v>
+        <v>7.39439420273364E-10</v>
       </c>
       <c r="T2">
-        <v>6.947452506705805E-15</v>
+        <v>-2.779019310714956E-14</v>
       </c>
       <c r="U2">
-        <v>3.842247608439417E-09</v>
+        <v>3.842275398555888E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842247612875905E-09</v>
+        <v>-3.842275402992428E-09</v>
       </c>
       <c r="W2">
-        <v>-6.947380524063668E-15</v>
+        <v>2.779026508955686E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842247607935528E-09</v>
+        <v>-3.84227539805199E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908924E-09</v>
+        <v>3.842282351025453E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11429,40 +11429,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947058</v>
+        <v>0.7333333491947054</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874885</v>
+        <v>0.3666666743874883</v>
       </c>
       <c r="AI2">
-        <v>0.3666666748072236</v>
+        <v>0.3666666748072256</v>
       </c>
       <c r="AJ2">
         <v>0.7333333492104355</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489839</v>
       </c>
       <c r="AL2">
-        <v>0.3666666748614578</v>
+        <v>0.36666667486146</v>
       </c>
       <c r="AM2">
-        <v>1.484155485183155E-09</v>
+        <v>1.484209090658042E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988594</v>
+        <v>-179.9999999988595</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981704</v>
+        <v>-179.9999999981706</v>
       </c>
       <c r="AP2">
-        <v>2.87857302791416E-09</v>
+        <v>2.878607861125007E-09</v>
       </c>
       <c r="AQ2">
         <v>-179.999999991079</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.9999999968232</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11506,40 +11506,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.85913436458201E-10</v>
+        <v>9.859273315164467E-10</v>
       </c>
       <c r="O3">
-        <v>2.464913858062406E-10</v>
+        <v>2.464635956897698E-10</v>
       </c>
       <c r="P3">
-        <v>2.464844384932088E-10</v>
+        <v>2.464879122577794E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859203839802743E-10</v>
+        <v>-9.859342790385191E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464827013454965E-10</v>
+        <v>-2.464618587581426E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464879122084285E-10</v>
+        <v>-2.464983335021261E-10</v>
       </c>
       <c r="T3">
-        <v>5.753042624211803E-20</v>
+        <v>5.753214339799947E-20</v>
       </c>
       <c r="U3">
-        <v>-1.28076309764742E-09</v>
+        <v>-1.280763097647422E-09</v>
       </c>
       <c r="V3">
-        <v>1.280749204515921E-09</v>
+        <v>1.280749204515925E-09</v>
       </c>
       <c r="W3">
-        <v>-4.953320906208275E-20</v>
+        <v>-4.953450656073169E-20</v>
       </c>
       <c r="X3">
-        <v>1.28076309770341E-09</v>
+        <v>1.280756150174294E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280742256930805E-09</v>
+        <v>-1.280742256930811E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11560,40 +11560,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156791</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361501</v>
+        <v>0.3666666743361487</v>
       </c>
       <c r="AI3">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ3">
         <v>0.7333333492104355</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489839</v>
       </c>
       <c r="AL3">
-        <v>0.3666666748614578</v>
+        <v>0.36666667486146</v>
       </c>
       <c r="AM3">
-        <v>3.343346885608304E-09</v>
+        <v>3.343399556614982E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884855</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
       <c r="AP3">
-        <v>2.87857302791416E-09</v>
+        <v>2.878607861125007E-09</v>
       </c>
       <c r="AQ3">
         <v>-179.999999991079</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.9999999968232</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11637,40 +11637,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859203839873235E-10</v>
+        <v>9.859273315164458E-10</v>
       </c>
       <c r="O4">
-        <v>2.464913858062423E-10</v>
+        <v>2.464774907480045E-10</v>
       </c>
       <c r="P4">
-        <v>2.464913860223363E-10</v>
+        <v>2.464879122577801E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859342790385195E-10</v>
+        <v>-9.859447003322018E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464827013454976E-10</v>
+        <v>-2.464618587581437E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464879122084289E-10</v>
+        <v>-2.464983335021265E-10</v>
       </c>
       <c r="T4">
-        <v>-6.947471591425445E-15</v>
+        <v>1.389511577674323E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280770045176537E-09</v>
+        <v>-1.280763097647419E-09</v>
       </c>
       <c r="V4">
-        <v>1.280749204515921E-09</v>
+        <v>1.280756152045053E-09</v>
       </c>
       <c r="W4">
-        <v>6.947479588387505E-15</v>
+        <v>-1.389510777961947E-14</v>
       </c>
       <c r="X4">
-        <v>1.280770045232528E-09</v>
+        <v>1.280763097703411E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280749204459932E-09</v>
+        <v>-1.280749204459938E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11691,40 +11691,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156793</v>
       </c>
       <c r="AH4">
-        <v>0.36666667433615</v>
+        <v>0.3666666743361486</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ4">
         <v>0.7333333492104355</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489839</v>
       </c>
       <c r="AL4">
-        <v>0.3666666748614578</v>
+        <v>0.36666667486146</v>
       </c>
       <c r="AM4">
-        <v>3.343351955544776E-09</v>
+        <v>3.343394392790796E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884855</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
       <c r="AP4">
-        <v>2.87857302791416E-09</v>
+        <v>2.878607861125007E-09</v>
       </c>
       <c r="AQ4">
         <v>-179.999999991079</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.9999999968232</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -11768,40 +11768,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-6.947529123155145E-15</v>
+        <v>-3.473764560969465E-15</v>
       </c>
       <c r="O5">
-        <v>-1.395343480042167E-24</v>
+        <v>-5.210646838943801E-15</v>
       </c>
       <c r="P5">
-        <v>-6.947529127492393E-15</v>
+        <v>-3.473764563746212E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.473764560564058E-15</v>
+        <v>-3.473764561577582E-15</v>
       </c>
       <c r="R5">
-        <v>-3.473764557900537E-15</v>
+        <v>3.473764560342371E-15</v>
       </c>
       <c r="S5">
-        <v>-6.947529128078431E-15</v>
+        <v>-3.473764563746213E-15</v>
       </c>
       <c r="T5">
-        <v>1.389505824428326E-14</v>
+        <v>-3.473764561374876E-15</v>
       </c>
       <c r="U5">
-        <v>6.947529117196422E-15</v>
+        <v>5.210646836850795E-15</v>
       </c>
       <c r="V5">
-        <v>5.860374037869076E-25</v>
+        <v>2.930344791115582E-25</v>
       </c>
       <c r="W5">
-        <v>-1.04212936837192E-14</v>
+        <v>6.947529122141636E-15</v>
       </c>
       <c r="X5">
-        <v>-3.473764559295882E-15</v>
+        <v>-8.684411395797823E-15</v>
       </c>
       <c r="Y5">
-        <v>-6.947529126906355E-15</v>
+        <v>2.930344791115582E-25</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11822,40 +11822,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156791</v>
       </c>
       <c r="AH5">
-        <v>0.3666666743361501</v>
+        <v>0.3666666743361487</v>
       </c>
       <c r="AI5">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156793</v>
       </c>
       <c r="AK5">
-        <v>0.36666667433615</v>
+        <v>0.3666666743361486</v>
       </c>
       <c r="AL5">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AM5">
-        <v>3.343346885608304E-09</v>
+        <v>3.343399556614982E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884855</v>
       </c>
       <c r="AO5">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
       <c r="AP5">
-        <v>3.343351955544776E-09</v>
+        <v>3.343394392790796E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884855</v>
       </c>
       <c r="AR5">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
     </row>
   </sheetData>
@@ -12046,40 +12046,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957736835525453E-09</v>
+        <v>-2.957750730583695E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394324716518613E-10</v>
+        <v>-7.39432471651857E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394463673583617E-10</v>
+        <v>-7.39449841122942E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957733361824335E-09</v>
+        <v>2.957740309353455E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073656E-10</v>
+        <v>7.394411565073685E-10</v>
       </c>
       <c r="S2">
-        <v>7.394498415670326E-10</v>
+        <v>7.39439420273364E-10</v>
       </c>
       <c r="T2">
-        <v>6.947452506705805E-15</v>
+        <v>-2.779019310714956E-14</v>
       </c>
       <c r="U2">
-        <v>3.842247608439417E-09</v>
+        <v>3.842275398555888E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842247612875905E-09</v>
+        <v>-3.842275402992428E-09</v>
       </c>
       <c r="W2">
-        <v>-6.947380524063668E-15</v>
+        <v>2.779026508955686E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842247607935528E-09</v>
+        <v>-3.84227539805199E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908924E-09</v>
+        <v>3.842282351025453E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12100,40 +12100,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947058</v>
+        <v>0.7333333491947054</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874885</v>
+        <v>0.3666666743874883</v>
       </c>
       <c r="AI2">
-        <v>0.3666666748072236</v>
+        <v>0.3666666748072256</v>
       </c>
       <c r="AJ2">
         <v>0.7333333492104355</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489839</v>
       </c>
       <c r="AL2">
-        <v>0.3666666748614578</v>
+        <v>0.36666667486146</v>
       </c>
       <c r="AM2">
-        <v>1.484155485183155E-09</v>
+        <v>1.484209090658042E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988594</v>
+        <v>-179.9999999988595</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981704</v>
+        <v>-179.9999999981706</v>
       </c>
       <c r="AP2">
-        <v>2.87857302791416E-09</v>
+        <v>2.878607861125007E-09</v>
       </c>
       <c r="AQ2">
         <v>-179.999999991079</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.9999999968232</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12177,40 +12177,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.85913436458201E-10</v>
+        <v>9.859273315164467E-10</v>
       </c>
       <c r="O3">
-        <v>2.464913858062406E-10</v>
+        <v>2.464635956897698E-10</v>
       </c>
       <c r="P3">
-        <v>2.464844384932088E-10</v>
+        <v>2.464879122577794E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859203839802743E-10</v>
+        <v>-9.859342790385191E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464827013454965E-10</v>
+        <v>-2.464618587581426E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464879122084285E-10</v>
+        <v>-2.464983335021261E-10</v>
       </c>
       <c r="T3">
-        <v>5.753042624211803E-20</v>
+        <v>5.753214339799947E-20</v>
       </c>
       <c r="U3">
-        <v>-1.28076309764742E-09</v>
+        <v>-1.280763097647422E-09</v>
       </c>
       <c r="V3">
-        <v>1.280749204515921E-09</v>
+        <v>1.280749204515925E-09</v>
       </c>
       <c r="W3">
-        <v>-4.953320906208275E-20</v>
+        <v>-4.953450656073169E-20</v>
       </c>
       <c r="X3">
-        <v>1.28076309770341E-09</v>
+        <v>1.280756150174294E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280742256930805E-09</v>
+        <v>-1.280742256930811E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12231,40 +12231,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156791</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361501</v>
+        <v>0.3666666743361487</v>
       </c>
       <c r="AI3">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ3">
         <v>0.7333333492104355</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489839</v>
       </c>
       <c r="AL3">
-        <v>0.3666666748614578</v>
+        <v>0.36666667486146</v>
       </c>
       <c r="AM3">
-        <v>3.343346885608304E-09</v>
+        <v>3.343399556614982E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884855</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
       <c r="AP3">
-        <v>2.87857302791416E-09</v>
+        <v>2.878607861125007E-09</v>
       </c>
       <c r="AQ3">
         <v>-179.999999991079</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.9999999968232</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12308,40 +12308,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859203839873235E-10</v>
+        <v>9.859273315164458E-10</v>
       </c>
       <c r="O4">
-        <v>2.464913858062423E-10</v>
+        <v>2.464774907480045E-10</v>
       </c>
       <c r="P4">
-        <v>2.464913860223363E-10</v>
+        <v>2.464879122577801E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859342790385195E-10</v>
+        <v>-9.859447003322018E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464827013454976E-10</v>
+        <v>-2.464618587581437E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464879122084289E-10</v>
+        <v>-2.464983335021265E-10</v>
       </c>
       <c r="T4">
-        <v>-6.947471591425445E-15</v>
+        <v>1.389511577674323E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280770045176537E-09</v>
+        <v>-1.280763097647419E-09</v>
       </c>
       <c r="V4">
-        <v>1.280749204515921E-09</v>
+        <v>1.280756152045053E-09</v>
       </c>
       <c r="W4">
-        <v>6.947479588387505E-15</v>
+        <v>-1.389510777961947E-14</v>
       </c>
       <c r="X4">
-        <v>1.280770045232528E-09</v>
+        <v>1.280763097703411E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280749204459932E-09</v>
+        <v>-1.280749204459938E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12362,40 +12362,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156793</v>
       </c>
       <c r="AH4">
-        <v>0.36666667433615</v>
+        <v>0.3666666743361486</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ4">
         <v>0.7333333492104355</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489839</v>
       </c>
       <c r="AL4">
-        <v>0.3666666748614578</v>
+        <v>0.36666667486146</v>
       </c>
       <c r="AM4">
-        <v>3.343351955544776E-09</v>
+        <v>3.343394392790796E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884855</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
       <c r="AP4">
-        <v>2.87857302791416E-09</v>
+        <v>2.878607861125007E-09</v>
       </c>
       <c r="AQ4">
         <v>-179.999999991079</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.9999999968232</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -12439,40 +12439,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-6.947529123155145E-15</v>
+        <v>-3.473764560969465E-15</v>
       </c>
       <c r="O5">
-        <v>-1.395343480042167E-24</v>
+        <v>-5.210646838943801E-15</v>
       </c>
       <c r="P5">
-        <v>-6.947529127492393E-15</v>
+        <v>-3.473764563746212E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.473764560564058E-15</v>
+        <v>-3.473764561577582E-15</v>
       </c>
       <c r="R5">
-        <v>-3.473764557900537E-15</v>
+        <v>3.473764560342371E-15</v>
       </c>
       <c r="S5">
-        <v>-6.947529128078431E-15</v>
+        <v>-3.473764563746213E-15</v>
       </c>
       <c r="T5">
-        <v>1.389505824428326E-14</v>
+        <v>-3.473764561374876E-15</v>
       </c>
       <c r="U5">
-        <v>6.947529117196422E-15</v>
+        <v>5.210646836850795E-15</v>
       </c>
       <c r="V5">
-        <v>5.860374037869076E-25</v>
+        <v>2.930344791115582E-25</v>
       </c>
       <c r="W5">
-        <v>-1.04212936837192E-14</v>
+        <v>6.947529122141636E-15</v>
       </c>
       <c r="X5">
-        <v>-3.473764559295882E-15</v>
+        <v>-8.684411395797823E-15</v>
       </c>
       <c r="Y5">
-        <v>-6.947529126906355E-15</v>
+        <v>2.930344791115582E-25</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -12493,40 +12493,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156791</v>
       </c>
       <c r="AH5">
-        <v>0.3666666743361501</v>
+        <v>0.3666666743361487</v>
       </c>
       <c r="AI5">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156793</v>
       </c>
       <c r="AK5">
-        <v>0.36666667433615</v>
+        <v>0.3666666743361486</v>
       </c>
       <c r="AL5">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AM5">
-        <v>3.343346885608304E-09</v>
+        <v>3.343399556614982E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884855</v>
       </c>
       <c r="AO5">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
       <c r="AP5">
-        <v>3.343351955544776E-09</v>
+        <v>3.343394392790796E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884855</v>
       </c>
       <c r="AR5">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
     </row>
   </sheetData>
@@ -12717,40 +12717,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27217640902256E-09</v>
+        <v>-2.272170538072256E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904132908088462E-09</v>
+        <v>-1.904133989749224E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132488178790879E-09</v>
+        <v>-3.132516791721271E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272172640664604E-09</v>
+        <v>2.272166492076649E-09</v>
       </c>
       <c r="R2">
-        <v>1.90413839697278E-09</v>
+        <v>1.904128598122801E-09</v>
       </c>
       <c r="S2">
-        <v>3.132494027516656E-09</v>
+        <v>3.132505736661123E-09</v>
       </c>
       <c r="T2">
-        <v>7.092059154658381E-10</v>
+        <v>7.091729919845227E-10</v>
       </c>
       <c r="U2">
-        <v>4.349295580361688E-09</v>
+        <v>4.349335926177968E-09</v>
       </c>
       <c r="V2">
-        <v>-8.033224496886039E-10</v>
+        <v>-8.033400255202285E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092015917682331E-10</v>
+        <v>-7.091727143126698E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349292884203543E-09</v>
+        <v>-4.349324948591943E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033351368536774E-10</v>
+        <v>8.033338412220528E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12771,40 +12771,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503077</v>
+        <v>0.8561498316503071</v>
       </c>
       <c r="AH2">
         <v>0.6454597859038529</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143207</v>
+        <v>0.4396365303143223</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569921</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885541</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501965</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880367</v>
+        <v>-3.925473815880366</v>
       </c>
       <c r="AN2">
         <v>-153.8407182488146</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510055</v>
+        <v>128.6858355510056</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878257</v>
+        <v>-3.92547381487826</v>
       </c>
       <c r="AQ2">
         <v>-153.8407182453231</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12848,40 +12848,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573911578625338E-10</v>
+        <v>7.57390880224884E-10</v>
       </c>
       <c r="O3">
-        <v>6.347382514300118E-10</v>
+        <v>6.346984585485963E-10</v>
       </c>
       <c r="P3">
-        <v>1.044169660622668E-09</v>
+        <v>1.044160554856422E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.574030182987903E-10</v>
+        <v>-7.573860012828325E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.346984585251489E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.044165107716101E-09</v>
       </c>
       <c r="T3">
-        <v>-2.363964845598589E-10</v>
+        <v>-2.364005305856107E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449794047940142E-09</v>
       </c>
       <c r="V3">
-        <v>2.677832598071749E-10</v>
+        <v>2.677813042447891E-10</v>
       </c>
       <c r="W3">
-        <v>2.364013635023609E-10</v>
+        <v>2.364123910290167E-10</v>
       </c>
       <c r="X3">
-        <v>1.449782590312176E-09</v>
+        <v>1.449794047966746E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677822819993808E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12902,40 +12902,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592208</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794379</v>
+        <v>0.6454597858794366</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621542</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569921</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885541</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501965</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544227</v>
       </c>
       <c r="AN3">
         <v>-153.8407182441592</v>
       </c>
       <c r="AO3">
-        <v>128.6858355552459</v>
+        <v>128.685835555246</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878257</v>
+        <v>-3.92547381487826</v>
       </c>
       <c r="AQ3">
         <v>-153.8407182453231</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12979,40 +12979,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573917131378336E-10</v>
+        <v>7.573995275516877E-10</v>
       </c>
       <c r="O4">
-        <v>6.347382514300118E-10</v>
+        <v>6.347094358951937E-10</v>
       </c>
       <c r="P4">
-        <v>1.044176163010713E-09</v>
+        <v>1.044167057244467E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573952038849363E-10</v>
+        <v>-7.574027406611399E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.347038503625938E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.044178112492191E-09</v>
       </c>
       <c r="T4">
-        <v>-2.363883925083551E-10</v>
+        <v>-2.363929938094069E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449788656102696E-09</v>
       </c>
       <c r="V4">
-        <v>2.677884665635853E-10</v>
+        <v>2.677865110011994E-10</v>
       </c>
       <c r="W4">
-        <v>2.363967622013091E-10</v>
+        <v>2.364054095281127E-10</v>
       </c>
       <c r="X4">
-        <v>1.449782590312176E-09</v>
+        <v>1.449805025313343E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677926955122009E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13033,40 +13033,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592209</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794378</v>
+        <v>0.6454597858794365</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621542</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569921</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885541</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501965</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544228</v>
       </c>
       <c r="AN4">
         <v>-153.8407182441592</v>
       </c>
       <c r="AO4">
-        <v>128.6858355552459</v>
+        <v>128.685835555246</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878257</v>
+        <v>-3.92547381487826</v>
       </c>
       <c r="AQ4">
         <v>-153.8407182453231</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13110,40 +13110,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.023012875945784E-15</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>6.885050586647289E-15</v>
+        <v>-2.695918722533553E-15</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-6.502388044847328E-15</v>
       </c>
       <c r="Q5">
-        <v>-9.837426729784136E-15</v>
+        <v>1.269335255556428E-14</v>
       </c>
       <c r="R5">
-        <v>1.237372388525666E-14</v>
+        <v>4.140713937342587E-15</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-3.251194022423664E-15</v>
       </c>
       <c r="T5">
-        <v>-1.388188249723926E-16</v>
+        <v>-0</v>
       </c>
       <c r="U5">
-        <v>6.788214733105023E-15</v>
+        <v>5.488673298609366E-15</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-5.206756410347524E-15</v>
       </c>
       <c r="W5">
-        <v>4.740119876753532E-15</v>
+        <v>7.259138553948786E-15</v>
       </c>
       <c r="X5">
-        <v>9.484133455638577E-15</v>
+        <v>5.440255371838236E-15</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-2.603378205173762E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13164,40 +13164,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592208</v>
       </c>
       <c r="AH5">
-        <v>0.6454597858794379</v>
+        <v>0.6454597858794366</v>
       </c>
       <c r="AI5">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621542</v>
       </c>
       <c r="AJ5">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592209</v>
       </c>
       <c r="AK5">
-        <v>0.6454597858794378</v>
+        <v>0.6454597858794365</v>
       </c>
       <c r="AL5">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621542</v>
       </c>
       <c r="AM5">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544227</v>
       </c>
       <c r="AN5">
         <v>-153.8407182441592</v>
       </c>
       <c r="AO5">
-        <v>128.6858355552459</v>
+        <v>128.685835555246</v>
       </c>
       <c r="AP5">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544228</v>
       </c>
       <c r="AQ5">
         <v>-153.8407182441592</v>
       </c>
       <c r="AR5">
-        <v>128.6858355552459</v>
+        <v>128.685835555246</v>
       </c>
     </row>
   </sheetData>
@@ -13388,40 +13388,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27217640902256E-09</v>
+        <v>-2.272170538072256E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904132908088462E-09</v>
+        <v>-1.904133989749224E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132488178790879E-09</v>
+        <v>-3.132516791721271E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272172640664604E-09</v>
+        <v>2.272166492076649E-09</v>
       </c>
       <c r="R2">
-        <v>1.90413839697278E-09</v>
+        <v>1.904128598122801E-09</v>
       </c>
       <c r="S2">
-        <v>3.132494027516656E-09</v>
+        <v>3.132505736661123E-09</v>
       </c>
       <c r="T2">
-        <v>7.092059154658381E-10</v>
+        <v>7.091729919845227E-10</v>
       </c>
       <c r="U2">
-        <v>4.349295580361688E-09</v>
+        <v>4.349335926177968E-09</v>
       </c>
       <c r="V2">
-        <v>-8.033224496886039E-10</v>
+        <v>-8.033400255202285E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092015917682331E-10</v>
+        <v>-7.091727143126698E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349292884203543E-09</v>
+        <v>-4.349324948591943E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033351368536774E-10</v>
+        <v>8.033338412220528E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13442,40 +13442,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503077</v>
+        <v>0.8561498316503071</v>
       </c>
       <c r="AH2">
         <v>0.6454597859038529</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143207</v>
+        <v>0.4396365303143223</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569921</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885541</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501965</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880367</v>
+        <v>-3.925473815880366</v>
       </c>
       <c r="AN2">
         <v>-153.8407182488146</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510055</v>
+        <v>128.6858355510056</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878257</v>
+        <v>-3.92547381487826</v>
       </c>
       <c r="AQ2">
         <v>-153.8407182453231</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13519,40 +13519,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573911578625338E-10</v>
+        <v>7.57390880224884E-10</v>
       </c>
       <c r="O3">
-        <v>6.347382514300118E-10</v>
+        <v>6.346984585485963E-10</v>
       </c>
       <c r="P3">
-        <v>1.044169660622668E-09</v>
+        <v>1.044160554856422E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.574030182987903E-10</v>
+        <v>-7.573860012828325E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.346984585251489E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.044165107716101E-09</v>
       </c>
       <c r="T3">
-        <v>-2.363964845598589E-10</v>
+        <v>-2.364005305856107E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449794047940142E-09</v>
       </c>
       <c r="V3">
-        <v>2.677832598071749E-10</v>
+        <v>2.677813042447891E-10</v>
       </c>
       <c r="W3">
-        <v>2.364013635023609E-10</v>
+        <v>2.364123910290167E-10</v>
       </c>
       <c r="X3">
-        <v>1.449782590312176E-09</v>
+        <v>1.449794047966746E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677822819993808E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13573,40 +13573,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592208</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794379</v>
+        <v>0.6454597858794366</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621542</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569921</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885541</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501965</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544227</v>
       </c>
       <c r="AN3">
         <v>-153.8407182441592</v>
       </c>
       <c r="AO3">
-        <v>128.6858355552459</v>
+        <v>128.685835555246</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878257</v>
+        <v>-3.92547381487826</v>
       </c>
       <c r="AQ3">
         <v>-153.8407182453231</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13650,40 +13650,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573917131378336E-10</v>
+        <v>7.573995275516877E-10</v>
       </c>
       <c r="O4">
-        <v>6.347382514300118E-10</v>
+        <v>6.347094358951937E-10</v>
       </c>
       <c r="P4">
-        <v>1.044176163010713E-09</v>
+        <v>1.044167057244467E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573952038849363E-10</v>
+        <v>-7.574027406611399E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.347038503625938E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.044178112492191E-09</v>
       </c>
       <c r="T4">
-        <v>-2.363883925083551E-10</v>
+        <v>-2.363929938094069E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449788656102696E-09</v>
       </c>
       <c r="V4">
-        <v>2.677884665635853E-10</v>
+        <v>2.677865110011994E-10</v>
       </c>
       <c r="W4">
-        <v>2.363967622013091E-10</v>
+        <v>2.364054095281127E-10</v>
       </c>
       <c r="X4">
-        <v>1.449782590312176E-09</v>
+        <v>1.449805025313343E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677926955122009E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13704,40 +13704,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592209</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794378</v>
+        <v>0.6454597858794365</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621542</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569921</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885541</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501965</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544228</v>
       </c>
       <c r="AN4">
         <v>-153.8407182441592</v>
       </c>
       <c r="AO4">
-        <v>128.6858355552459</v>
+        <v>128.685835555246</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878257</v>
+        <v>-3.92547381487826</v>
       </c>
       <c r="AQ4">
         <v>-153.8407182453231</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.6858355541859</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13781,40 +13781,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.023012875945784E-15</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>6.885050586647289E-15</v>
+        <v>-2.695918722533553E-15</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-6.502388044847328E-15</v>
       </c>
       <c r="Q5">
-        <v>-9.837426729784136E-15</v>
+        <v>1.269335255556428E-14</v>
       </c>
       <c r="R5">
-        <v>1.237372388525666E-14</v>
+        <v>4.140713937342587E-15</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-3.251194022423664E-15</v>
       </c>
       <c r="T5">
-        <v>-1.388188249723926E-16</v>
+        <v>-0</v>
       </c>
       <c r="U5">
-        <v>6.788214733105023E-15</v>
+        <v>5.488673298609366E-15</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-5.206756410347524E-15</v>
       </c>
       <c r="W5">
-        <v>4.740119876753532E-15</v>
+        <v>7.259138553948786E-15</v>
       </c>
       <c r="X5">
-        <v>9.484133455638577E-15</v>
+        <v>5.440255371838236E-15</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-2.603378205173762E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13835,40 +13835,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592208</v>
       </c>
       <c r="AH5">
-        <v>0.6454597858794379</v>
+        <v>0.6454597858794366</v>
       </c>
       <c r="AI5">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621542</v>
       </c>
       <c r="AJ5">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592209</v>
       </c>
       <c r="AK5">
-        <v>0.6454597858794378</v>
+        <v>0.6454597858794365</v>
       </c>
       <c r="AL5">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621542</v>
       </c>
       <c r="AM5">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544227</v>
       </c>
       <c r="AN5">
         <v>-153.8407182441592</v>
       </c>
       <c r="AO5">
-        <v>128.6858355552459</v>
+        <v>128.685835555246</v>
       </c>
       <c r="AP5">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544228</v>
       </c>
       <c r="AQ5">
         <v>-153.8407182441592</v>
       </c>
       <c r="AR5">
-        <v>128.6858355552459</v>
+        <v>128.685835555246</v>
       </c>
     </row>
   </sheetData>
@@ -14059,40 +14059,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444426488372728E-09</v>
+        <v>-2.444458068049876E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111054376559182E-10</v>
+        <v>-6.111125430832687E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111062277565641E-10</v>
+        <v>-6.111204386112881E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444429646441114E-09</v>
+        <v>2.444459647134406E-09</v>
       </c>
       <c r="R2">
-        <v>6.111030698848291E-10</v>
+        <v>6.111109648041092E-10</v>
       </c>
       <c r="S2">
-        <v>6.111062284612707E-10</v>
+        <v>6.111204393159837E-10</v>
       </c>
       <c r="T2">
-        <v>-1.894780472824627E-14</v>
+        <v>6.315936982843053E-15</v>
       </c>
       <c r="U2">
-        <v>3.1754186424756E-09</v>
+        <v>3.175410747556311E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175424961548569E-09</v>
+        <v>-3.175402855774534E-09</v>
       </c>
       <c r="W2">
-        <v>2.210583193457312E-14</v>
+        <v>-6.315877490718476E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107592E-09</v>
+        <v>-3.175409168156019E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175428119932723E-09</v>
+        <v>3.175406014158688E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -14113,40 +14113,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635033</v>
+        <v>0.6666666666635043</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670294</v>
+        <v>0.3333333331670287</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964816</v>
+        <v>0.3333333334964795</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909595</v>
+        <v>0.6666666666909603</v>
       </c>
       <c r="AK2">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386034</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523613</v>
       </c>
       <c r="AM2">
-        <v>-3.653257421386626E-11</v>
+        <v>-3.642181021143429E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981411</v>
+        <v>-179.9999999981412</v>
       </c>
       <c r="AO2">
         <v>179.9999999980558</v>
       </c>
       <c r="AP2">
-        <v>1.357894964940577E-09</v>
+        <v>1.358022404757571E-09</v>
       </c>
       <c r="AQ2">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871891</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -14190,40 +14190,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148077768464141E-10</v>
+        <v>8.148046188786996E-10</v>
       </c>
       <c r="O3">
-        <v>2.036944442738405E-10</v>
+        <v>2.037062866527641E-10</v>
       </c>
       <c r="P3">
-        <v>2.036999709202477E-10</v>
+        <v>2.03704707871815E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148109348029432E-10</v>
+        <v>-8.148093558190867E-10</v>
       </c>
       <c r="R3">
-        <v>-2.036999706390394E-10</v>
+        <v>-2.037047075906078E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036999708419463E-10</v>
+        <v>-2.037078657612335E-10</v>
       </c>
       <c r="T3">
-        <v>-3.157941793701568E-15</v>
+        <v>2.592241507991882E-20</v>
       </c>
       <c r="U3">
-        <v>-1.058468670016501E-09</v>
+        <v>-1.058470249000355E-09</v>
       </c>
       <c r="V3">
-        <v>1.058481303303374E-09</v>
+        <v>1.058465513464785E-09</v>
       </c>
       <c r="W3">
-        <v>3.157948403798706E-15</v>
+        <v>3.157948402023796E-15</v>
       </c>
       <c r="X3">
-        <v>1.058473407014339E-09</v>
+        <v>1.058471828030481E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058478145289386E-09</v>
+        <v>-1.058468671386229E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -14244,40 +14244,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001118</v>
       </c>
       <c r="AH3">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291285</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709889</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909595</v>
+        <v>0.6666666666909603</v>
       </c>
       <c r="AK3">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386034</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523613</v>
       </c>
       <c r="AM3">
-        <v>1.822713111023478E-09</v>
+        <v>1.822823465224708E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835669</v>
       </c>
       <c r="AP3">
-        <v>1.357894964940577E-09</v>
+        <v>1.358022404757571E-09</v>
       </c>
       <c r="AQ3">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871891</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -14321,40 +14321,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148109348141285E-10</v>
+        <v>8.148014609109852E-10</v>
       </c>
       <c r="O4">
-        <v>2.036976022415531E-10</v>
+        <v>2.037031286850529E-10</v>
       </c>
       <c r="P4">
-        <v>2.037031288879623E-10</v>
+        <v>2.037015499041E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148140927706576E-10</v>
+        <v>-8.14806197851372E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067512E-10</v>
+        <v>-2.037047075906061E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037031288096615E-10</v>
+        <v>-2.037047077935169E-10</v>
       </c>
       <c r="T4">
-        <v>-6.315909508158277E-15</v>
+        <v>2.592216934722429E-20</v>
       </c>
       <c r="U4">
-        <v>-1.0584686700165E-09</v>
+        <v>-1.058473406968067E-09</v>
       </c>
       <c r="V4">
-        <v>1.05847498736794E-09</v>
+        <v>1.058471829400219E-09</v>
       </c>
       <c r="W4">
-        <v>6.315916118328271E-15</v>
+        <v>3.157948402098646E-15</v>
       </c>
       <c r="X4">
-        <v>1.058470249046626E-09</v>
+        <v>1.058465512095056E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058471829353952E-09</v>
+        <v>-1.05846867138623E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -14375,40 +14375,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001113</v>
+        <v>0.666666666700112</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291283</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709903</v>
+        <v>0.3333333335709887</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909595</v>
+        <v>0.6666666666909603</v>
       </c>
       <c r="AK4">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386034</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523613</v>
       </c>
       <c r="AM4">
-        <v>1.82271948092277E-09</v>
+        <v>1.82281325043125E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835669</v>
       </c>
       <c r="AP4">
-        <v>1.357894964940577E-09</v>
+        <v>1.358022404757571E-09</v>
       </c>
       <c r="AQ4">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871891</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -14452,40 +14452,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-3.157967714848685E-15</v>
+        <v>4.736951571871174E-15</v>
       </c>
       <c r="O5">
-        <v>-4.736951569937657E-15</v>
+        <v>1.578983855724563E-15</v>
       </c>
       <c r="P5">
-        <v>-6.315935429860351E-15</v>
+        <v>-1.57898385837043E-15</v>
       </c>
       <c r="Q5">
-        <v>3.01388129589872E-25</v>
+        <v>-6.315935429195057E-15</v>
       </c>
       <c r="R5">
-        <v>5.52794279333624E-25</v>
+        <v>-3.157967712554715E-15</v>
       </c>
       <c r="S5">
-        <v>6.315935431671051E-15</v>
+        <v>-9.053409510423255E-25</v>
       </c>
       <c r="T5">
-        <v>6.315935429195059E-15</v>
+        <v>3.157967714798465E-15</v>
       </c>
       <c r="U5">
-        <v>3.15796771089633E-15</v>
+        <v>1.578983856830154E-15</v>
       </c>
       <c r="V5">
-        <v>1.263187086877419E-14</v>
+        <v>4.526704755211628E-25</v>
       </c>
       <c r="W5">
-        <v>-9.47390314394328E-15</v>
+        <v>-3.157967714848698E-15</v>
       </c>
       <c r="X5">
-        <v>-1.578983856277356E-15</v>
+        <v>-1.105591714110869E-24</v>
       </c>
       <c r="Y5">
-        <v>-6.31593543529244E-15</v>
+        <v>-3.157967716740858E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -14506,40 +14506,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001118</v>
       </c>
       <c r="AH5">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291285</v>
       </c>
       <c r="AI5">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709889</v>
       </c>
       <c r="AJ5">
-        <v>0.6666666667001113</v>
+        <v>0.666666666700112</v>
       </c>
       <c r="AK5">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291283</v>
       </c>
       <c r="AL5">
-        <v>0.3333333335709903</v>
+        <v>0.3333333335709887</v>
       </c>
       <c r="AM5">
-        <v>1.822713111023478E-09</v>
+        <v>1.822823465224708E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AO5">
-        <v>179.9999999835668</v>
+        <v>179.9999999835669</v>
       </c>
       <c r="AP5">
-        <v>1.82271948092277E-09</v>
+        <v>1.82281325043125E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AR5">
-        <v>179.9999999835668</v>
+        <v>179.9999999835669</v>
       </c>
     </row>
   </sheetData>
@@ -15008,40 +15008,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444426488372728E-09</v>
+        <v>-2.444458068049876E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111054376559182E-10</v>
+        <v>-6.111125430832687E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111062277565641E-10</v>
+        <v>-6.111204386112881E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444429646441114E-09</v>
+        <v>2.444459647134406E-09</v>
       </c>
       <c r="R2">
-        <v>6.111030698848291E-10</v>
+        <v>6.111109648041092E-10</v>
       </c>
       <c r="S2">
-        <v>6.111062284612707E-10</v>
+        <v>6.111204393159837E-10</v>
       </c>
       <c r="T2">
-        <v>-1.894780472824627E-14</v>
+        <v>6.315936982843053E-15</v>
       </c>
       <c r="U2">
-        <v>3.1754186424756E-09</v>
+        <v>3.175410747556311E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175424961548569E-09</v>
+        <v>-3.175402855774534E-09</v>
       </c>
       <c r="W2">
-        <v>2.210583193457312E-14</v>
+        <v>-6.315877490718476E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107592E-09</v>
+        <v>-3.175409168156019E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175428119932723E-09</v>
+        <v>3.175406014158688E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15062,40 +15062,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635033</v>
+        <v>0.6666666666635043</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670294</v>
+        <v>0.3333333331670287</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964816</v>
+        <v>0.3333333334964795</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909595</v>
+        <v>0.6666666666909603</v>
       </c>
       <c r="AK2">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386034</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523613</v>
       </c>
       <c r="AM2">
-        <v>-3.653257421386626E-11</v>
+        <v>-3.642181021143429E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981411</v>
+        <v>-179.9999999981412</v>
       </c>
       <c r="AO2">
         <v>179.9999999980558</v>
       </c>
       <c r="AP2">
-        <v>1.357894964940577E-09</v>
+        <v>1.358022404757571E-09</v>
       </c>
       <c r="AQ2">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871891</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -15139,40 +15139,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148077768464141E-10</v>
+        <v>8.148046188786996E-10</v>
       </c>
       <c r="O3">
-        <v>2.036944442738405E-10</v>
+        <v>2.037062866527641E-10</v>
       </c>
       <c r="P3">
-        <v>2.036999709202477E-10</v>
+        <v>2.03704707871815E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148109348029432E-10</v>
+        <v>-8.148093558190867E-10</v>
       </c>
       <c r="R3">
-        <v>-2.036999706390394E-10</v>
+        <v>-2.037047075906078E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036999708419463E-10</v>
+        <v>-2.037078657612335E-10</v>
       </c>
       <c r="T3">
-        <v>-3.157941793701568E-15</v>
+        <v>2.592241507991882E-20</v>
       </c>
       <c r="U3">
-        <v>-1.058468670016501E-09</v>
+        <v>-1.058470249000355E-09</v>
       </c>
       <c r="V3">
-        <v>1.058481303303374E-09</v>
+        <v>1.058465513464785E-09</v>
       </c>
       <c r="W3">
-        <v>3.157948403798706E-15</v>
+        <v>3.157948402023796E-15</v>
       </c>
       <c r="X3">
-        <v>1.058473407014339E-09</v>
+        <v>1.058471828030481E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058478145289386E-09</v>
+        <v>-1.058468671386229E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15193,40 +15193,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001118</v>
       </c>
       <c r="AH3">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291285</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709889</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909595</v>
+        <v>0.6666666666909603</v>
       </c>
       <c r="AK3">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386034</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523613</v>
       </c>
       <c r="AM3">
-        <v>1.822713111023478E-09</v>
+        <v>1.822823465224708E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835669</v>
       </c>
       <c r="AP3">
-        <v>1.357894964940577E-09</v>
+        <v>1.358022404757571E-09</v>
       </c>
       <c r="AQ3">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871891</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -15270,40 +15270,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148109348141285E-10</v>
+        <v>8.148014609109852E-10</v>
       </c>
       <c r="O4">
-        <v>2.036976022415531E-10</v>
+        <v>2.037031286850529E-10</v>
       </c>
       <c r="P4">
-        <v>2.037031288879623E-10</v>
+        <v>2.037015499041E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148140927706576E-10</v>
+        <v>-8.14806197851372E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067512E-10</v>
+        <v>-2.037047075906061E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037031288096615E-10</v>
+        <v>-2.037047077935169E-10</v>
       </c>
       <c r="T4">
-        <v>-6.315909508158277E-15</v>
+        <v>2.592216934722429E-20</v>
       </c>
       <c r="U4">
-        <v>-1.0584686700165E-09</v>
+        <v>-1.058473406968067E-09</v>
       </c>
       <c r="V4">
-        <v>1.05847498736794E-09</v>
+        <v>1.058471829400219E-09</v>
       </c>
       <c r="W4">
-        <v>6.315916118328271E-15</v>
+        <v>3.157948402098646E-15</v>
       </c>
       <c r="X4">
-        <v>1.058470249046626E-09</v>
+        <v>1.058465512095056E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058471829353952E-09</v>
+        <v>-1.05846867138623E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15324,40 +15324,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001113</v>
+        <v>0.666666666700112</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291283</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709903</v>
+        <v>0.3333333335709887</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909595</v>
+        <v>0.6666666666909603</v>
       </c>
       <c r="AK4">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386034</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523613</v>
       </c>
       <c r="AM4">
-        <v>1.82271948092277E-09</v>
+        <v>1.82281325043125E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835669</v>
       </c>
       <c r="AP4">
-        <v>1.357894964940577E-09</v>
+        <v>1.358022404757571E-09</v>
       </c>
       <c r="AQ4">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871891</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -15401,40 +15401,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-3.157967714848685E-15</v>
+        <v>4.736951571871174E-15</v>
       </c>
       <c r="O5">
-        <v>-4.736951569937657E-15</v>
+        <v>1.578983855724563E-15</v>
       </c>
       <c r="P5">
-        <v>-6.315935429860351E-15</v>
+        <v>-1.57898385837043E-15</v>
       </c>
       <c r="Q5">
-        <v>3.01388129589872E-25</v>
+        <v>-6.315935429195057E-15</v>
       </c>
       <c r="R5">
-        <v>5.52794279333624E-25</v>
+        <v>-3.157967712554715E-15</v>
       </c>
       <c r="S5">
-        <v>6.315935431671051E-15</v>
+        <v>-9.053409510423255E-25</v>
       </c>
       <c r="T5">
-        <v>6.315935429195059E-15</v>
+        <v>3.157967714798465E-15</v>
       </c>
       <c r="U5">
-        <v>3.15796771089633E-15</v>
+        <v>1.578983856830154E-15</v>
       </c>
       <c r="V5">
-        <v>1.263187086877419E-14</v>
+        <v>4.526704755211628E-25</v>
       </c>
       <c r="W5">
-        <v>-9.47390314394328E-15</v>
+        <v>-3.157967714848698E-15</v>
       </c>
       <c r="X5">
-        <v>-1.578983856277356E-15</v>
+        <v>-1.105591714110869E-24</v>
       </c>
       <c r="Y5">
-        <v>-6.31593543529244E-15</v>
+        <v>-3.157967716740858E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -15455,40 +15455,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001118</v>
       </c>
       <c r="AH5">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291285</v>
       </c>
       <c r="AI5">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709889</v>
       </c>
       <c r="AJ5">
-        <v>0.6666666667001113</v>
+        <v>0.666666666700112</v>
       </c>
       <c r="AK5">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291283</v>
       </c>
       <c r="AL5">
-        <v>0.3333333335709903</v>
+        <v>0.3333333335709887</v>
       </c>
       <c r="AM5">
-        <v>1.822713111023478E-09</v>
+        <v>1.822823465224708E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AO5">
-        <v>179.9999999835668</v>
+        <v>179.9999999835669</v>
       </c>
       <c r="AP5">
-        <v>1.82271948092277E-09</v>
+        <v>1.82281325043125E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AR5">
-        <v>179.9999999835668</v>
+        <v>179.9999999835669</v>
       </c>
     </row>
   </sheetData>
@@ -15679,40 +15679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941664673910368E-09</v>
+        <v>-1.941676535896479E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538334099701026E-09</v>
+        <v>-1.538345633398662E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506376899628722E-09</v>
+        <v>-2.506368822218788E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941661284823312E-09</v>
+        <v>1.941677202725533E-09</v>
       </c>
       <c r="R2">
-        <v>1.538338198605439E-09</v>
+        <v>1.538349732303074E-09</v>
       </c>
       <c r="S2">
-        <v>2.506379874020185E-09</v>
+        <v>2.506369417387344E-09</v>
       </c>
       <c r="T2">
-        <v>5.58871396961715E-10</v>
+        <v>5.588849436845028E-10</v>
       </c>
       <c r="U2">
-        <v>3.623720242019631E-09</v>
+        <v>3.623716487109243E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292813237592463E-10</v>
+        <v>-8.292741860905267E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588675264388592E-10</v>
+        <v>-5.588886336385957E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623722796553055E-09</v>
+        <v>-3.623719041642666E-09</v>
       </c>
       <c r="Y2">
-        <v>8.29277958386186E-10</v>
+        <v>8.292735131874428E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15733,40 +15733,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099299</v>
+        <v>0.7679592756099297</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825747</v>
+        <v>0.5655462792825752</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706159</v>
+        <v>0.3792589156706156</v>
       </c>
       <c r="AJ2">
         <v>0.7679592756256419</v>
       </c>
       <c r="AK2">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745901</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297766</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611864</v>
+        <v>-3.793471525611829</v>
       </c>
       <c r="AN2">
         <v>-155.6266320097133</v>
       </c>
       <c r="AO2">
-        <v>131.4656840130515</v>
+        <v>131.4656840130514</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370535</v>
       </c>
       <c r="AQ2">
         <v>-155.6266320036331</v>
       </c>
       <c r="AR2">
-        <v>131.4656840149958</v>
+        <v>131.4656840149957</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -15810,40 +15810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472127675213018E-10</v>
+        <v>6.472145824290804E-10</v>
       </c>
       <c r="O3">
-        <v>5.127840824309526E-10</v>
+        <v>5.127752180248893E-10</v>
       </c>
       <c r="P3">
-        <v>8.354637462755905E-10</v>
+        <v>8.35463433028516E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.47213008192211E-10</v>
+        <v>-6.472136749694321E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127775436449472E-10</v>
+        <v>-5.127733305596305E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354607722066444E-10</v>
+        <v>-8.354616485710227E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862947438154749E-10</v>
+        <v>-1.862948641538084E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.207912434407663E-09</v>
       </c>
       <c r="V3">
-        <v>2.764289340772605E-10</v>
+        <v>2.764238623843748E-10</v>
       </c>
       <c r="W3">
-        <v>1.862911140033212E-10</v>
+        <v>1.862948039880447E-10</v>
       </c>
       <c r="X3">
-        <v>1.20791432185643E-09</v>
+        <v>1.20791476009186E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764322996409101E-10</v>
+        <v>-2.764258817130348E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15864,40 +15864,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308792</v>
+        <v>0.767959275630879</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719286</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494969</v>
       </c>
       <c r="AJ3">
         <v>0.7679592756256419</v>
       </c>
       <c r="AK3">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745901</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297766</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956835</v>
+        <v>-3.793471523956779</v>
       </c>
       <c r="AN3">
         <v>-155.6266320016064</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156439</v>
+        <v>131.4656840156438</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370535</v>
       </c>
       <c r="AQ3">
         <v>-155.6266320036331</v>
       </c>
       <c r="AR3">
-        <v>131.4656840149958</v>
+        <v>131.4656840149957</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -15941,40 +15941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472132488746382E-10</v>
+        <v>6.472213607068584E-10</v>
       </c>
       <c r="O4">
-        <v>5.12784082430953E-10</v>
+        <v>5.127823095497418E-10</v>
       </c>
       <c r="P4">
-        <v>8.354679416040962E-10</v>
+        <v>8.354604589998844E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472132488688793E-10</v>
+        <v>-6.47220573585544E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127846351697987E-10</v>
+        <v>-5.127853024926917E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354649675351496E-10</v>
+        <v>-8.354586745423919E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862874841843606E-10</v>
+        <v>-1.863026051382594E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.20791510369923E-09</v>
       </c>
       <c r="V4">
-        <v>2.764350387580598E-10</v>
+        <v>2.76427227971848E-10</v>
       </c>
       <c r="W4">
-        <v>1.86287484187764E-10</v>
+        <v>1.86300730064717E-10</v>
       </c>
       <c r="X4">
-        <v>1.207916991147997E-09</v>
+        <v>1.207915218266785E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.76438404321709E-10</v>
+        <v>-2.764292473005081E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15998,37 +15998,37 @@
         <v>0.7679592756308792</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719285</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494967</v>
       </c>
       <c r="AJ4">
         <v>0.7679592756256419</v>
       </c>
       <c r="AK4">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745901</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297766</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956784</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO4">
-        <v>131.4656840156439</v>
+        <v>131.4656840156438</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370535</v>
       </c>
       <c r="AQ4">
         <v>-155.6266320036331</v>
       </c>
       <c r="AR4">
-        <v>131.4656840149958</v>
+        <v>131.4656840149957</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -16072,40 +16072,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.148130557583726E-15</v>
+        <v>-3.815239441580767E-15</v>
       </c>
       <c r="O5">
-        <v>-4.098541586409478E-15</v>
+        <v>-9.855420654512339E-15</v>
       </c>
       <c r="P5">
-        <v>5.94805726224926E-16</v>
+        <v>7.764162862585275E-15</v>
       </c>
       <c r="Q5">
-        <v>-9.074538892914919E-16</v>
+        <v>3.935577775726883E-15</v>
       </c>
       <c r="R5">
-        <v>4.327629048867768E-15</v>
+        <v>1.008450811697062E-14</v>
       </c>
       <c r="S5">
-        <v>1.189611452449852E-15</v>
+        <v>-5.9797456839105E-15</v>
       </c>
       <c r="T5">
-        <v>-3.569646390092909E-15</v>
+        <v>1.119029250686319E-14</v>
       </c>
       <c r="U5">
-        <v>2.554747835945256E-15</v>
+        <v>8.769801828964686E-15</v>
       </c>
       <c r="V5">
-        <v>-6.731174947106972E-16</v>
+        <v>2.065975830956601E-15</v>
       </c>
       <c r="W5">
-        <v>6.016916707305861E-17</v>
+        <v>-9.37538472828021E-15</v>
       </c>
       <c r="X5">
-        <v>3.431218694615879E-15</v>
+        <v>-2.783835298403536E-15</v>
       </c>
       <c r="Y5">
-        <v>-1.346234989421395E-15</v>
+        <v>-4.08532831508869E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16126,40 +16126,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7679592756308792</v>
+        <v>0.767959275630879</v>
       </c>
       <c r="AH5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719286</v>
       </c>
       <c r="AI5">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494969</v>
       </c>
       <c r="AJ5">
         <v>0.7679592756308792</v>
       </c>
       <c r="AK5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719285</v>
       </c>
       <c r="AL5">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494967</v>
       </c>
       <c r="AM5">
-        <v>-3.793471523956835</v>
+        <v>-3.793471523956779</v>
       </c>
       <c r="AN5">
         <v>-155.6266320016064</v>
       </c>
       <c r="AO5">
-        <v>131.4656840156439</v>
+        <v>131.4656840156438</v>
       </c>
       <c r="AP5">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956784</v>
       </c>
       <c r="AQ5">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AR5">
-        <v>131.4656840156439</v>
+        <v>131.4656840156438</v>
       </c>
     </row>
   </sheetData>
@@ -16350,40 +16350,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941664673910368E-09</v>
+        <v>-1.941676535896479E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538334099701026E-09</v>
+        <v>-1.538345633398662E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506376899628722E-09</v>
+        <v>-2.506368822218788E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941661284823312E-09</v>
+        <v>1.941677202725533E-09</v>
       </c>
       <c r="R2">
-        <v>1.538338198605439E-09</v>
+        <v>1.538349732303074E-09</v>
       </c>
       <c r="S2">
-        <v>2.506379874020185E-09</v>
+        <v>2.506369417387344E-09</v>
       </c>
       <c r="T2">
-        <v>5.58871396961715E-10</v>
+        <v>5.588849436845028E-10</v>
       </c>
       <c r="U2">
-        <v>3.623720242019631E-09</v>
+        <v>3.623716487109243E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292813237592463E-10</v>
+        <v>-8.292741860905267E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588675264388592E-10</v>
+        <v>-5.588886336385957E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623722796553055E-09</v>
+        <v>-3.623719041642666E-09</v>
       </c>
       <c r="Y2">
-        <v>8.29277958386186E-10</v>
+        <v>8.292735131874428E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -16404,40 +16404,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099299</v>
+        <v>0.7679592756099297</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825747</v>
+        <v>0.5655462792825752</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706159</v>
+        <v>0.3792589156706156</v>
       </c>
       <c r="AJ2">
         <v>0.7679592756256419</v>
       </c>
       <c r="AK2">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745901</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297766</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611864</v>
+        <v>-3.793471525611829</v>
       </c>
       <c r="AN2">
         <v>-155.6266320097133</v>
       </c>
       <c r="AO2">
-        <v>131.4656840130515</v>
+        <v>131.4656840130514</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370535</v>
       </c>
       <c r="AQ2">
         <v>-155.6266320036331</v>
       </c>
       <c r="AR2">
-        <v>131.4656840149958</v>
+        <v>131.4656840149957</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -16481,40 +16481,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472127675213018E-10</v>
+        <v>6.472145824290804E-10</v>
       </c>
       <c r="O3">
-        <v>5.127840824309526E-10</v>
+        <v>5.127752180248893E-10</v>
       </c>
       <c r="P3">
-        <v>8.354637462755905E-10</v>
+        <v>8.35463433028516E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.47213008192211E-10</v>
+        <v>-6.472136749694321E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127775436449472E-10</v>
+        <v>-5.127733305596305E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354607722066444E-10</v>
+        <v>-8.354616485710227E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862947438154749E-10</v>
+        <v>-1.862948641538084E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.207912434407663E-09</v>
       </c>
       <c r="V3">
-        <v>2.764289340772605E-10</v>
+        <v>2.764238623843748E-10</v>
       </c>
       <c r="W3">
-        <v>1.862911140033212E-10</v>
+        <v>1.862948039880447E-10</v>
       </c>
       <c r="X3">
-        <v>1.20791432185643E-09</v>
+        <v>1.20791476009186E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764322996409101E-10</v>
+        <v>-2.764258817130348E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -16535,40 +16535,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308792</v>
+        <v>0.767959275630879</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719286</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494969</v>
       </c>
       <c r="AJ3">
         <v>0.7679592756256419</v>
       </c>
       <c r="AK3">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745901</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297766</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956835</v>
+        <v>-3.793471523956779</v>
       </c>
       <c r="AN3">
         <v>-155.6266320016064</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156439</v>
+        <v>131.4656840156438</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370535</v>
       </c>
       <c r="AQ3">
         <v>-155.6266320036331</v>
       </c>
       <c r="AR3">
-        <v>131.4656840149958</v>
+        <v>131.4656840149957</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -16612,40 +16612,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472132488746382E-10</v>
+        <v>6.472213607068584E-10</v>
       </c>
       <c r="O4">
-        <v>5.12784082430953E-10</v>
+        <v>5.127823095497418E-10</v>
       </c>
       <c r="P4">
-        <v>8.354679416040962E-10</v>
+        <v>8.354604589998844E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472132488688793E-10</v>
+        <v>-6.47220573585544E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127846351697987E-10</v>
+        <v>-5.127853024926917E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354649675351496E-10</v>
+        <v>-8.354586745423919E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862874841843606E-10</v>
+        <v>-1.863026051382594E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.20791510369923E-09</v>
       </c>
       <c r="V4">
-        <v>2.764350387580598E-10</v>
+        <v>2.76427227971848E-10</v>
       </c>
       <c r="W4">
-        <v>1.86287484187764E-10</v>
+        <v>1.86300730064717E-10</v>
       </c>
       <c r="X4">
-        <v>1.207916991147997E-09</v>
+        <v>1.207915218266785E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.76438404321709E-10</v>
+        <v>-2.764292473005081E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -16669,37 +16669,37 @@
         <v>0.7679592756308792</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719285</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494967</v>
       </c>
       <c r="AJ4">
         <v>0.7679592756256419</v>
       </c>
       <c r="AK4">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745901</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297766</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956784</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO4">
-        <v>131.4656840156439</v>
+        <v>131.4656840156438</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370535</v>
       </c>
       <c r="AQ4">
         <v>-155.6266320036331</v>
       </c>
       <c r="AR4">
-        <v>131.4656840149958</v>
+        <v>131.4656840149957</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -16743,40 +16743,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.148130557583726E-15</v>
+        <v>-3.815239441580767E-15</v>
       </c>
       <c r="O5">
-        <v>-4.098541586409478E-15</v>
+        <v>-9.855420654512339E-15</v>
       </c>
       <c r="P5">
-        <v>5.94805726224926E-16</v>
+        <v>7.764162862585275E-15</v>
       </c>
       <c r="Q5">
-        <v>-9.074538892914919E-16</v>
+        <v>3.935577775726883E-15</v>
       </c>
       <c r="R5">
-        <v>4.327629048867768E-15</v>
+        <v>1.008450811697062E-14</v>
       </c>
       <c r="S5">
-        <v>1.189611452449852E-15</v>
+        <v>-5.9797456839105E-15</v>
       </c>
       <c r="T5">
-        <v>-3.569646390092909E-15</v>
+        <v>1.119029250686319E-14</v>
       </c>
       <c r="U5">
-        <v>2.554747835945256E-15</v>
+        <v>8.769801828964686E-15</v>
       </c>
       <c r="V5">
-        <v>-6.731174947106972E-16</v>
+        <v>2.065975830956601E-15</v>
       </c>
       <c r="W5">
-        <v>6.016916707305861E-17</v>
+        <v>-9.37538472828021E-15</v>
       </c>
       <c r="X5">
-        <v>3.431218694615879E-15</v>
+        <v>-2.783835298403536E-15</v>
       </c>
       <c r="Y5">
-        <v>-1.346234989421395E-15</v>
+        <v>-4.08532831508869E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16797,40 +16797,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7679592756308792</v>
+        <v>0.767959275630879</v>
       </c>
       <c r="AH5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719286</v>
       </c>
       <c r="AI5">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494969</v>
       </c>
       <c r="AJ5">
         <v>0.7679592756308792</v>
       </c>
       <c r="AK5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719285</v>
       </c>
       <c r="AL5">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494967</v>
       </c>
       <c r="AM5">
-        <v>-3.793471523956835</v>
+        <v>-3.793471523956779</v>
       </c>
       <c r="AN5">
         <v>-155.6266320016064</v>
       </c>
       <c r="AO5">
-        <v>131.4656840156439</v>
+        <v>131.4656840156438</v>
       </c>
       <c r="AP5">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956784</v>
       </c>
       <c r="AQ5">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AR5">
-        <v>131.4656840156439</v>
+        <v>131.4656840156438</v>
       </c>
     </row>
   </sheetData>
@@ -18408,40 +18408,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.563194052506556E-14</v>
+        <v>3.647452789181904E-14</v>
       </c>
       <c r="O2">
-        <v>1.563189667967258E-14</v>
+        <v>3.90798074620344E-14</v>
       </c>
       <c r="P2">
-        <v>-1.042133822868902E-14</v>
+        <v>-1.563198507595081E-14</v>
       </c>
       <c r="Q2">
-        <v>-2.60532342084423E-14</v>
+        <v>-5.210646841688423E-14</v>
       </c>
       <c r="R2">
-        <v>-5.210174758053882E-15</v>
+        <v>-3.647405579497306E-14</v>
       </c>
       <c r="S2">
-        <v>5.211119632898032E-15</v>
+        <v>1.563241332887132E-14</v>
       </c>
       <c r="T2">
-        <v>-3.647452789181843E-14</v>
+        <v>-3.647452789181817E-14</v>
       </c>
       <c r="U2">
-        <v>5.763350571398476E-09</v>
+        <v>5.763384440602926E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089307E-09</v>
+        <v>-5.763413103323537E-09</v>
       </c>
       <c r="W2">
-        <v>3.64745278918183E-14</v>
+        <v>4.168517473350637E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763355781559422E-09</v>
+        <v>-5.76338965076387E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763387050575203E-09</v>
+        <v>5.763413103809438E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -18465,22 +18465,22 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057474</v>
+        <v>0.5500000117057466</v>
       </c>
       <c r="AH2">
-        <v>0.550000012103018</v>
+        <v>0.5500000121030191</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593773</v>
       </c>
       <c r="AK2">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493885</v>
       </c>
       <c r="AL2">
-        <v>6.94449666104254E-13</v>
+        <v>6.8903619594E-13</v>
       </c>
       <c r="AM2">
         <v>-179.9999999995569</v>
@@ -18489,7 +18489,7 @@
         <v>179.9999999995499</v>
       </c>
       <c r="AO2">
-        <v>6.887451165512839E-13</v>
+        <v>6.796868449654769E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952996</v>
@@ -18539,40 +18539,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736675361E-14</v>
+        <v>-2.084258736675374E-14</v>
       </c>
       <c r="O3">
-        <v>1.563214546371081E-14</v>
+        <v>-1.302641215349651E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886348086E-14</v>
+        <v>-5.210441661213508E-15</v>
       </c>
       <c r="Q3">
-        <v>1.252730165043641E-28</v>
+        <v>1.042129368337693E-14</v>
       </c>
       <c r="R3">
-        <v>-5.210804201512236E-15</v>
+        <v>1.563178315733342E-14</v>
       </c>
       <c r="S3">
-        <v>-1.563209812746983E-14</v>
+        <v>-5.210804443527041E-15</v>
       </c>
       <c r="T3">
-        <v>1.04212936833765E-14</v>
+        <v>2.084258736675325E-14</v>
       </c>
       <c r="U3">
-        <v>-1.92113422573967E-09</v>
+        <v>-1.921142041709926E-09</v>
       </c>
       <c r="V3">
-        <v>1.921108174325013E-09</v>
+        <v>1.921144648852928E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337675E-14</v>
+        <v>-1.563194052506499E-14</v>
       </c>
       <c r="X3">
-        <v>1.921139436440498E-09</v>
+        <v>1.921136831117076E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921118595564711E-09</v>
+        <v>-1.921144648798938E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -18596,31 +18596,31 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439223</v>
+        <v>0.5500000116439206</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648448</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593773</v>
       </c>
       <c r="AK3">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493885</v>
       </c>
       <c r="AL3">
-        <v>6.660169023184687E-13</v>
+        <v>6.657119977675031E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938734</v>
       </c>
       <c r="AO3">
-        <v>6.887451165512839E-13</v>
+        <v>6.796868449654769E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952996</v>
@@ -18670,40 +18670,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.563194052506493E-14</v>
+        <v>-2.605323420844217E-14</v>
       </c>
       <c r="O4">
-        <v>1.563214546482255E-14</v>
+        <v>-2.605118473943222E-15</v>
       </c>
       <c r="P4">
-        <v>1.042149886348086E-14</v>
+        <v>-1.563173534613598E-14</v>
       </c>
       <c r="Q4">
-        <v>-1.252730165043641E-28</v>
+        <v>1.563194052506543E-14</v>
       </c>
       <c r="R4">
-        <v>5.210489477222209E-15</v>
+        <v>5.210489477745387E-15</v>
       </c>
       <c r="S4">
-        <v>-1.563209812661494E-14</v>
+        <v>1.563178293165618E-14</v>
       </c>
       <c r="T4">
-        <v>-1.56319405250653E-14</v>
+        <v>2.605323420844156E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921144647033347E-09</v>
+        <v>-1.921152463003602E-09</v>
       </c>
       <c r="V4">
-        <v>1.921108174325013E-09</v>
+        <v>1.921165491440305E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368337675E-14</v>
+        <v>-2.605323420844168E-14</v>
       </c>
       <c r="X4">
-        <v>1.921139436440499E-09</v>
+        <v>1.921147252410754E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921155070092627E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -18727,31 +18727,31 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439204</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648447</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593773</v>
       </c>
       <c r="AK4">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493885</v>
       </c>
       <c r="AL4">
-        <v>6.729871228056328E-13</v>
+        <v>6.698015385616779E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938733</v>
       </c>
       <c r="AO4">
-        <v>6.887451165512839E-13</v>
+        <v>6.796868449654769E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952996</v>
@@ -18801,40 +18801,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.210646841688615E-15</v>
+        <v>1.042129368337687E-14</v>
       </c>
       <c r="O5">
-        <v>1.042129367732985E-14</v>
+        <v>-5.210646840054574E-15</v>
       </c>
       <c r="P5">
-        <v>-5.210646844155951E-15</v>
+        <v>5.210646843042944E-15</v>
       </c>
       <c r="Q5">
-        <v>-1.042129368337644E-14</v>
+        <v>-1.042129368337681E-14</v>
       </c>
       <c r="R5">
-        <v>-5.210646840332533E-15</v>
+        <v>5.210646840054571E-15</v>
       </c>
       <c r="S5">
-        <v>-5.21064684526895E-15</v>
+        <v>-2.084258737551082E-14</v>
       </c>
       <c r="T5">
-        <v>2.084258736675343E-14</v>
+        <v>-1.042129368337662E-14</v>
       </c>
       <c r="U5">
-        <v>1.042129367955333E-14</v>
+        <v>7.815970258275302E-15</v>
       </c>
       <c r="V5">
-        <v>5.56499296051812E-25</v>
+        <v>-1.042129368886843E-14</v>
       </c>
       <c r="W5">
-        <v>-2.605323420844199E-14</v>
+        <v>5.210646841688252E-15</v>
       </c>
       <c r="X5">
-        <v>1.042129367788572E-14</v>
+        <v>-7.815970258275301E-15</v>
       </c>
       <c r="Y5">
-        <v>-1.042129368775541E-14</v>
+        <v>1.042129369053798E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -18858,37 +18858,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG5">
-        <v>0.5500000116439223</v>
+        <v>0.5500000116439206</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648448</v>
       </c>
       <c r="AI5">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ5">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439204</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648447</v>
       </c>
       <c r="AL5">
-        <v>6.660169023184687E-13</v>
+        <v>6.657119977675031E-13</v>
       </c>
       <c r="AM5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938734</v>
       </c>
       <c r="AO5">
-        <v>6.729871228056328E-13</v>
+        <v>6.698015385616779E-13</v>
       </c>
       <c r="AP5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938733</v>
       </c>
     </row>
   </sheetData>
